--- a/config_files/Horarios/Medibiofarma/Amaia Iturmendi.xlsx
+++ b/config_files/Horarios/Medibiofarma/Amaia Iturmendi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="470">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -323,7 +323,8 @@
     <t>Medibiofarma</t>
   </si>
   <si>
-    <t>B66918053</t>
+    <t xml:space="preserve">B66918053
+</t>
   </si>
   <si>
     <t>31/1124914-33</t>
@@ -9416,21 +9417,20 @@
       </c>
     </row>
     <row r="46" ht="15.6" customHeight="true">
-      <c r="Z46" s="104" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA46" s="109" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AB46" s="109" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="AC46" s="106" t="n">
-        <v>8.0</v>
-      </c>
+      <c r="Z46" s="104"/>
+      <c r="AA46" s="109"/>
+      <c r="AB46" s="109"/>
+      <c r="AC46" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T13:V13"/>
     <mergeCell ref="AA40:AC40"/>
     <mergeCell ref="AA33:AC33"/>
     <mergeCell ref="AA34:AC34"/>
@@ -9440,13 +9440,6 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="T32:V32"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/config_files/Horarios/Medibiofarma/Amaia Iturmendi.xlsx
+++ b/config_files/Horarios/Medibiofarma/Amaia Iturmendi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="472">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -1435,6 +1435,12 @@
   </si>
   <si>
     <t>31/10/2022</t>
+  </si>
+  <si>
+    <t>BAJA</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
 </sst>
 </file>
@@ -5751,7 +5757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="494">
+  <cellXfs count="505">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
@@ -6891,6 +6897,39 @@
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -7420,36 +7459,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="true"/>
-    <col min="2" max="2" width="6.77734375" customWidth="true"/>
-    <col min="3" max="3" width="6.77734375" customWidth="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true"/>
-    <col min="7" max="7" width="6.77734375" customWidth="true"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true"/>
-    <col min="9" max="9" width="2.77734375" customWidth="true"/>
-    <col min="10" max="10" width="6.77734375" customWidth="true"/>
-    <col min="11" max="11" width="6.77734375" customWidth="true"/>
-    <col min="12" max="12" width="6.77734375" customWidth="true"/>
-    <col min="13" max="13" width="6.77734375" customWidth="true"/>
-    <col min="14" max="14" width="6.77734375" customWidth="true"/>
-    <col min="15" max="15" width="6.77734375" customWidth="true"/>
-    <col min="16" max="16" width="6.77734375" customWidth="true"/>
-    <col min="17" max="17" width="2.77734375" customWidth="true"/>
-    <col min="18" max="18" width="6.77734375" customWidth="true"/>
-    <col min="19" max="19" width="6.77734375" customWidth="true"/>
-    <col min="20" max="20" width="6.77734375" customWidth="true"/>
-    <col min="21" max="21" width="6.77734375" customWidth="true"/>
-    <col min="22" max="22" width="6.77734375" customWidth="true"/>
-    <col min="23" max="23" width="6.77734375" customWidth="true"/>
-    <col min="24" max="24" width="6.77734375" customWidth="true"/>
-    <col min="25" max="25" width="10.0" customWidth="true"/>
-    <col min="26" max="26" width="5.77734375" customWidth="true"/>
-    <col min="27" max="27" width="25.0" customWidth="true"/>
-    <col min="28" max="28" width="25.0" customWidth="true"/>
-    <col min="29" max="29" width="25.0" customWidth="true"/>
-    <col min="30" max="30" width="10.0" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="5.77734375" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.8" customHeight="true">
@@ -9453,23 +9492,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -10049,23 +10088,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -10652,23 +10691,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11246,23 +11285,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11848,23 +11887,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -12043,8 +12082,12 @@
       <c r="B18" s="131" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="132"/>
-      <c r="E18" s="132"/>
+      <c r="C18" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E18" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G18" s="129" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -12054,8 +12097,12 @@
       <c r="B19" s="131" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="132"/>
-      <c r="E19" s="132"/>
+      <c r="C19" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E19" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G19" s="129" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -12065,8 +12112,12 @@
       <c r="B20" s="131" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="132"/>
-      <c r="E20" s="132"/>
+      <c r="C20" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E20" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G20" s="129" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
@@ -12086,11 +12137,14 @@
       <c r="B22" s="131" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="G22" s="129" t="n">
-        <f>((E22-C22)*24)-1</f>
-        <v>0.0</v>
+      <c r="C22" s="132" t="s">
+        <v>470</v>
+      </c>
+      <c r="E22" s="132" t="s">
+        <v>470</v>
+      </c>
+      <c r="G22" s="129" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
@@ -12117,30 +12171,40 @@
       <c r="B25" s="131" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="G25" s="129" t="n">
-        <f>((E25-C25)*24)-1</f>
-        <v>0.0</v>
+      <c r="C25" s="132" t="s">
+        <v>470</v>
+      </c>
+      <c r="E25" s="132" t="s">
+        <v>470</v>
+      </c>
+      <c r="G25" s="129" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="true">
       <c r="B26" s="131" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="G26" s="129" t="n">
-        <f>((E26-C26)*24)-1</f>
-        <v>0.0</v>
+      <c r="C26" s="132" t="s">
+        <v>470</v>
+      </c>
+      <c r="E26" s="132" t="s">
+        <v>470</v>
+      </c>
+      <c r="G26" s="129" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="true">
       <c r="B27" s="131" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="132"/>
-      <c r="E27" s="132"/>
+      <c r="C27" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E27" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G27" s="129" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
@@ -12150,8 +12214,12 @@
       <c r="B28" s="131" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="132"/>
-      <c r="E28" s="132"/>
+      <c r="C28" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E28" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G28" s="129" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -12161,8 +12229,12 @@
       <c r="B29" s="131" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="132"/>
-      <c r="E29" s="132"/>
+      <c r="C29" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E29" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G29" s="129" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -12192,8 +12264,12 @@
       <c r="B32" s="131" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="132"/>
-      <c r="E32" s="132"/>
+      <c r="C32" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E32" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G32" s="129" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -12203,8 +12279,12 @@
       <c r="B33" s="131" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="132"/>
-      <c r="E33" s="132"/>
+      <c r="C33" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E33" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G33" s="129" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -12214,8 +12294,12 @@
       <c r="B34" s="131" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="132"/>
-      <c r="E34" s="132"/>
+      <c r="C34" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E34" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G34" s="129" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
@@ -12225,8 +12309,12 @@
       <c r="B35" s="131" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="132"/>
-      <c r="E35" s="132"/>
+      <c r="C35" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E35" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G35" s="129" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -12236,8 +12324,12 @@
       <c r="B36" s="131" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="132"/>
-      <c r="E36" s="132"/>
+      <c r="C36" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E36" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G36" s="129" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -12267,8 +12359,12 @@
       <c r="B39" s="131" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="132"/>
-      <c r="E39" s="132"/>
+      <c r="C39" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E39" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G39" s="129" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -12278,8 +12374,12 @@
       <c r="B40" s="131" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="132"/>
-      <c r="E40" s="132"/>
+      <c r="C40" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E40" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G40" s="129" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -12289,8 +12389,12 @@
       <c r="B41" s="131" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="132"/>
-      <c r="E41" s="132"/>
+      <c r="C41" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E41" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G41" s="129" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
@@ -12300,8 +12404,12 @@
       <c r="B42" s="131" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="132"/>
-      <c r="E42" s="132"/>
+      <c r="C42" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E42" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G42" s="129" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -12311,8 +12419,12 @@
       <c r="B43" s="131" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="132"/>
-      <c r="E43" s="132"/>
+      <c r="C43" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E43" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G43" s="129" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -12342,8 +12454,12 @@
       <c r="B46" s="131" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="132"/>
-      <c r="E46" s="132"/>
+      <c r="C46" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E46" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G46" s="129" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
@@ -12450,6 +12566,7 @@
       <c r="H62" s="143"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -12472,23 +12589,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -12646,8 +12763,12 @@
       <c r="B16" s="165" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="166"/>
-      <c r="E16" s="166"/>
+      <c r="C16" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E16" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G16" s="163" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -12657,8 +12778,12 @@
       <c r="B17" s="165" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="166"/>
-      <c r="E17" s="166"/>
+      <c r="C17" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E17" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G17" s="163" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -12668,8 +12793,12 @@
       <c r="B18" s="165" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="166"/>
-      <c r="E18" s="166"/>
+      <c r="C18" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E18" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G18" s="163" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -12679,8 +12808,12 @@
       <c r="B19" s="165" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="166"/>
-      <c r="E19" s="166"/>
+      <c r="C19" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E19" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G19" s="163" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -12710,8 +12843,12 @@
       <c r="B22" s="165" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="166"/>
-      <c r="E22" s="166"/>
+      <c r="C22" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E22" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G22" s="163" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -12721,8 +12858,12 @@
       <c r="B23" s="165" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="166"/>
-      <c r="E23" s="166"/>
+      <c r="C23" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E23" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G23" s="163" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -12732,8 +12873,12 @@
       <c r="B24" s="165" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="166"/>
-      <c r="E24" s="166"/>
+      <c r="C24" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E24" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G24" s="163" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -12743,8 +12888,12 @@
       <c r="B25" s="165" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="166"/>
-      <c r="E25" s="166"/>
+      <c r="C25" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E25" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G25" s="163" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -12754,8 +12903,12 @@
       <c r="B26" s="165" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="166"/>
-      <c r="E26" s="166"/>
+      <c r="C26" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E26" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G26" s="163" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -12785,8 +12938,12 @@
       <c r="B29" s="165" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="166"/>
-      <c r="E29" s="166"/>
+      <c r="C29" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E29" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G29" s="163" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -12796,8 +12953,12 @@
       <c r="B30" s="165" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="166"/>
-      <c r="E30" s="166"/>
+      <c r="C30" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E30" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G30" s="163" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
@@ -12807,8 +12968,12 @@
       <c r="B31" s="165" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="166"/>
-      <c r="E31" s="166"/>
+      <c r="C31" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E31" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G31" s="163" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -12818,8 +12983,12 @@
       <c r="B32" s="165" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="166"/>
-      <c r="E32" s="166"/>
+      <c r="C32" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E32" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G32" s="163" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -12829,8 +12998,12 @@
       <c r="B33" s="165" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="166"/>
-      <c r="E33" s="166"/>
+      <c r="C33" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E33" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G33" s="163" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -12860,8 +13033,12 @@
       <c r="B36" s="165" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="166"/>
-      <c r="E36" s="166"/>
+      <c r="C36" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E36" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G36" s="163" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -12871,8 +13048,12 @@
       <c r="B37" s="165" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="166"/>
-      <c r="E37" s="166"/>
+      <c r="C37" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E37" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G37" s="163" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -12882,8 +13063,12 @@
       <c r="B38" s="165" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="166"/>
-      <c r="E38" s="166"/>
+      <c r="C38" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E38" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G38" s="163" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -12893,8 +13078,12 @@
       <c r="B39" s="165" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="166"/>
-      <c r="E39" s="166"/>
+      <c r="C39" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E39" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G39" s="163" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -12904,8 +13093,12 @@
       <c r="B40" s="165" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="166"/>
-      <c r="E40" s="166"/>
+      <c r="C40" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E40" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G40" s="163" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -12935,8 +13128,12 @@
       <c r="B43" s="165" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="166"/>
-      <c r="E43" s="166"/>
+      <c r="C43" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E43" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G43" s="163" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -13059,6 +13256,7 @@
       <c r="H62" s="177"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="B58:H62"/>
@@ -13081,23 +13279,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13255,8 +13453,12 @@
       <c r="B16" s="199" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="200"/>
-      <c r="E16" s="200"/>
+      <c r="C16" s="500" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E16" s="500" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G16" s="197" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -13266,8 +13468,12 @@
       <c r="B17" s="199" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="200"/>
-      <c r="E17" s="200"/>
+      <c r="C17" s="500" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E17" s="500" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G17" s="197" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -13277,8 +13483,12 @@
       <c r="B18" s="199" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="200"/>
-      <c r="E18" s="200"/>
+      <c r="C18" s="500" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E18" s="500" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G18" s="197" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -13288,8 +13498,12 @@
       <c r="B19" s="199" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="200"/>
-      <c r="E19" s="200"/>
+      <c r="C19" s="500" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E19" s="500" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G19" s="197" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -13319,8 +13533,12 @@
       <c r="B22" s="199" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="200"/>
-      <c r="E22" s="200"/>
+      <c r="C22" s="500" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E22" s="500" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G22" s="197" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -13330,8 +13548,12 @@
       <c r="B23" s="199" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="200"/>
-      <c r="E23" s="200"/>
+      <c r="C23" s="500" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E23" s="500" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G23" s="197" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -13341,8 +13563,12 @@
       <c r="B24" s="199" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="200"/>
-      <c r="E24" s="200"/>
+      <c r="C24" s="500" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E24" s="500" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G24" s="197" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -13352,8 +13578,12 @@
       <c r="B25" s="199" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="200"/>
-      <c r="E25" s="200"/>
+      <c r="C25" s="500" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E25" s="500" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G25" s="197" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -13363,8 +13593,12 @@
       <c r="B26" s="199" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="200"/>
-      <c r="E26" s="200"/>
+      <c r="C26" s="500" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E26" s="500" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G26" s="197" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -13394,8 +13628,12 @@
       <c r="B29" s="199" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="200"/>
-      <c r="E29" s="200"/>
+      <c r="C29" s="500" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E29" s="500" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G29" s="197" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -13405,8 +13643,12 @@
       <c r="B30" s="199" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="200"/>
-      <c r="E30" s="200"/>
+      <c r="C30" s="500" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E30" s="500" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G30" s="197" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
@@ -13416,8 +13658,12 @@
       <c r="B31" s="199" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="200"/>
-      <c r="E31" s="200"/>
+      <c r="C31" s="500" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E31" s="500" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G31" s="197" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -13427,8 +13673,12 @@
       <c r="B32" s="199" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="200"/>
-      <c r="E32" s="200"/>
+      <c r="C32" s="500" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E32" s="500" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G32" s="197" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -13438,8 +13688,12 @@
       <c r="B33" s="199" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="200"/>
-      <c r="E33" s="200"/>
+      <c r="C33" s="500" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E33" s="500" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G33" s="197" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -13469,8 +13723,12 @@
       <c r="B36" s="199" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="200"/>
-      <c r="E36" s="200"/>
+      <c r="C36" s="500" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E36" s="500" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G36" s="197" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -13480,8 +13738,12 @@
       <c r="B37" s="199" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="200"/>
-      <c r="E37" s="200"/>
+      <c r="C37" s="500" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E37" s="500" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G37" s="197" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -13491,8 +13753,12 @@
       <c r="B38" s="199" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="200"/>
-      <c r="E38" s="200"/>
+      <c r="C38" s="500" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E38" s="500" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G38" s="197" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -13502,8 +13768,12 @@
       <c r="B39" s="199" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="200"/>
-      <c r="E39" s="200"/>
+      <c r="C39" s="500" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E39" s="500" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G39" s="197" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -13513,8 +13783,12 @@
       <c r="B40" s="199" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="200"/>
-      <c r="E40" s="200"/>
+      <c r="C40" s="500" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E40" s="500" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G40" s="197" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -13544,8 +13818,12 @@
       <c r="B43" s="199" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="200"/>
-      <c r="E43" s="200"/>
+      <c r="C43" s="500" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E43" s="500" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G43" s="197" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -13555,8 +13833,12 @@
       <c r="B44" s="199" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="200"/>
-      <c r="E44" s="200"/>
+      <c r="C44" s="500" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E44" s="500" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G44" s="197" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
@@ -13566,8 +13848,12 @@
       <c r="B45" s="199" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="200"/>
-      <c r="E45" s="200"/>
+      <c r="C45" s="500" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E45" s="500" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G45" s="197" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
@@ -13577,8 +13863,12 @@
       <c r="B46" s="199" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="200"/>
-      <c r="E46" s="200"/>
+      <c r="C46" s="500" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E46" s="500" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G46" s="197" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
@@ -13680,6 +13970,7 @@
       <c r="H62" s="210"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -13702,23 +13993,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13876,8 +14167,12 @@
       <c r="B16" s="232" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="233"/>
-      <c r="E16" s="233"/>
+      <c r="C16" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E16" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G16" s="230" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -13907,8 +14202,12 @@
       <c r="B19" s="232" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="233"/>
-      <c r="E19" s="233"/>
+      <c r="C19" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E19" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G19" s="230" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -13918,8 +14217,12 @@
       <c r="B20" s="232" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="233"/>
-      <c r="E20" s="233"/>
+      <c r="C20" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E20" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G20" s="230" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
@@ -13929,8 +14232,12 @@
       <c r="B21" s="232" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="233"/>
-      <c r="E21" s="233"/>
+      <c r="C21" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E21" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G21" s="230" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
@@ -13940,8 +14247,12 @@
       <c r="B22" s="232" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="233"/>
-      <c r="E22" s="233"/>
+      <c r="C22" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E22" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G22" s="230" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -13951,8 +14262,12 @@
       <c r="B23" s="232" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="233"/>
-      <c r="E23" s="233"/>
+      <c r="C23" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E23" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G23" s="230" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -13982,8 +14297,12 @@
       <c r="B26" s="232" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="233"/>
-      <c r="E26" s="233"/>
+      <c r="C26" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E26" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G26" s="230" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -13993,8 +14312,12 @@
       <c r="B27" s="232" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="233"/>
-      <c r="E27" s="233"/>
+      <c r="C27" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E27" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G27" s="230" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
@@ -14004,8 +14327,12 @@
       <c r="B28" s="232" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="233"/>
-      <c r="E28" s="233"/>
+      <c r="C28" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E28" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G28" s="230" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -14065,8 +14392,12 @@
       <c r="B34" s="232" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="233"/>
-      <c r="E34" s="233"/>
+      <c r="C34" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E34" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G34" s="230" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
@@ -14076,8 +14407,12 @@
       <c r="B35" s="232" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="233"/>
-      <c r="E35" s="233"/>
+      <c r="C35" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E35" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G35" s="230" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -14087,8 +14422,12 @@
       <c r="B36" s="232" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="233"/>
-      <c r="E36" s="233"/>
+      <c r="C36" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E36" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G36" s="230" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -14098,8 +14437,12 @@
       <c r="B37" s="232" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="233"/>
-      <c r="E37" s="233"/>
+      <c r="C37" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E37" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G37" s="230" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -14129,8 +14472,12 @@
       <c r="B40" s="232" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="233"/>
-      <c r="E40" s="233"/>
+      <c r="C40" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E40" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G40" s="230" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -14140,8 +14487,12 @@
       <c r="B41" s="232" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="233"/>
-      <c r="E41" s="233"/>
+      <c r="C41" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E41" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G41" s="230" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
@@ -14151,8 +14502,12 @@
       <c r="B42" s="232" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="233"/>
-      <c r="E42" s="233"/>
+      <c r="C42" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E42" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G42" s="230" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -14162,8 +14517,12 @@
       <c r="B43" s="232" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="233"/>
-      <c r="E43" s="233"/>
+      <c r="C43" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E43" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G43" s="230" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -14173,8 +14532,12 @@
       <c r="B44" s="232" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="233"/>
-      <c r="E44" s="233"/>
+      <c r="C44" s="504" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E44" s="504" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G44" s="230" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
@@ -14291,6 +14654,7 @@
       <c r="H62" s="243"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -14313,23 +14677,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -14933,23 +15297,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -15533,23 +15897,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -16136,23 +16500,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">

--- a/config_files/Horarios/Medibiofarma/Amaia Iturmendi.xlsx
+++ b/config_files/Horarios/Medibiofarma/Amaia Iturmendi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12280" activeTab="12"/>
+    <workbookView windowWidth="28800" windowHeight="12280" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="1" r:id="rId1"/>
@@ -386,15 +386,15 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="mmmm\ yyyy"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="d"/>
-    <numFmt numFmtId="179" formatCode="mmmm\ yyyy"/>
-    <numFmt numFmtId="180" formatCode="ddd"/>
+    <numFmt numFmtId="179" formatCode="ddd"/>
+    <numFmt numFmtId="180" formatCode="d"/>
     <numFmt numFmtId="181" formatCode="[$-40A]d\ mmm;@"/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="51">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -620,37 +620,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -665,6 +634,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -673,9 +657,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,16 +687,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,9 +702,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -735,24 +719,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -764,13 +757,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -869,12 +862,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -887,19 +874,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,31 +904,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,19 +970,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,79 +1030,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1720,30 +1701,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1777,28 +1734,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1817,155 +1754,199 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="57" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="53" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2000,31 +1981,31 @@
     <xf numFmtId="20" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2053,7 +2034,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="4" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2065,45 +2046,42 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2118,13 +2096,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="14" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2133,13 +2111,13 @@
     <xf numFmtId="0" fontId="15" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="180" fontId="16" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="17" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="17" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="16" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2151,7 +2129,7 @@
     <xf numFmtId="49" fontId="18" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="11" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2166,38 +2144,38 @@
     <xf numFmtId="49" fontId="18" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="12" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="12" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="12" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="12" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="12" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="12" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="11" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="21" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="14" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2206,13 +2184,13 @@
     <xf numFmtId="0" fontId="15" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="12" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="12" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2271,16 +2249,16 @@
     <xf numFmtId="20" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="178" fontId="14" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="16" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="179" fontId="16" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="17" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="179" fontId="17" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="16" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="179" fontId="16" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -3121,7 +3099,7 @@
   <dimension ref="B1:AC46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
@@ -3139,175 +3117,175 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.8" customHeight="1" spans="2:24">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="X1" s="97"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="X1" s="96"/>
     </row>
     <row r="2" ht="14.4" customHeight="1" spans="2:2">
-      <c r="B2" s="61"/>
+      <c r="B2" s="60"/>
     </row>
     <row r="3" ht="17.4" customHeight="1" spans="2:27">
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="127" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="66"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="127" t="s">
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="65"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="66"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="127" t="s">
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="65"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="66"/>
-      <c r="Z3" s="98" t="s">
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="65"/>
+      <c r="Z3" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="99" t="s">
+      <c r="AA3" s="98" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="14.4" customHeight="1" spans="2:27">
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="129" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="129" t="s">
+      <c r="C4" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="129" t="s">
+      <c r="E4" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="129" t="s">
+      <c r="F4" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="129" t="s">
+      <c r="G4" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="130" t="s">
+      <c r="H4" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="128" t="s">
+      <c r="J4" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="129" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="129" t="s">
+      <c r="K4" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="129" t="s">
+      <c r="M4" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="129" t="s">
+      <c r="N4" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="129" t="s">
+      <c r="O4" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="130" t="s">
+      <c r="P4" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="128" t="s">
+      <c r="R4" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="129" t="s">
-        <v>8</v>
-      </c>
-      <c r="T4" s="129" t="s">
+      <c r="S4" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="129" t="s">
+      <c r="U4" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="129" t="s">
+      <c r="V4" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="W4" s="129" t="s">
+      <c r="W4" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="130" t="s">
+      <c r="X4" s="129" t="s">
         <v>13</v>
       </c>
       <c r="Z4" s="45"/>
-      <c r="AA4" s="100" t="s">
+      <c r="AA4" s="99" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" ht="14.4" customHeight="1" spans="2:27">
-      <c r="B5" s="70"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
       <c r="H5" s="41">
         <v>44562</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="73">
+      <c r="J5" s="78"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="72">
         <v>44593</v>
       </c>
-      <c r="M5" s="73">
+      <c r="M5" s="72">
         <v>44594</v>
       </c>
-      <c r="N5" s="73">
+      <c r="N5" s="72">
         <v>44595</v>
       </c>
-      <c r="O5" s="73">
+      <c r="O5" s="72">
         <v>44596</v>
       </c>
       <c r="P5" s="14">
         <v>44597</v>
       </c>
-      <c r="R5" s="79"/>
-      <c r="S5" s="79"/>
-      <c r="T5" s="73">
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="72">
         <v>44621</v>
       </c>
-      <c r="U5" s="96">
+      <c r="U5" s="95">
         <v>44622</v>
       </c>
-      <c r="V5" s="96">
+      <c r="V5" s="95">
         <v>44623</v>
       </c>
-      <c r="W5" s="96">
+      <c r="W5" s="95">
         <v>44624</v>
       </c>
       <c r="X5" s="14">
         <v>44625</v>
       </c>
-      <c r="Z5" s="100" t="s">
+      <c r="Z5" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AA5" s="100" t="s">
+      <c r="AA5" s="99" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3315,19 +3293,19 @@
       <c r="B6" s="15">
         <v>44563</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="72">
         <v>44564</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="72">
         <v>44565</v>
       </c>
-      <c r="E6" s="73">
+      <c r="E6" s="72">
         <v>44566</v>
       </c>
       <c r="F6" s="45">
         <v>44567</v>
       </c>
-      <c r="G6" s="73">
+      <c r="G6" s="72">
         <v>44568</v>
       </c>
       <c r="H6" s="17">
@@ -3336,19 +3314,19 @@
       <c r="J6" s="15">
         <v>44598</v>
       </c>
-      <c r="K6" s="73">
+      <c r="K6" s="72">
         <v>44599</v>
       </c>
-      <c r="L6" s="73">
+      <c r="L6" s="72">
         <v>44600</v>
       </c>
-      <c r="M6" s="73">
+      <c r="M6" s="72">
         <v>44601</v>
       </c>
-      <c r="N6" s="73">
+      <c r="N6" s="72">
         <v>44602</v>
       </c>
-      <c r="O6" s="73">
+      <c r="O6" s="72">
         <v>44603</v>
       </c>
       <c r="P6" s="17">
@@ -3357,28 +3335,28 @@
       <c r="R6" s="15">
         <v>44626</v>
       </c>
-      <c r="S6" s="80">
+      <c r="S6" s="79">
         <v>44627</v>
       </c>
-      <c r="T6" s="81">
+      <c r="T6" s="80">
         <v>44628</v>
       </c>
-      <c r="U6" s="81">
+      <c r="U6" s="80">
         <v>44629</v>
       </c>
-      <c r="V6" s="81">
+      <c r="V6" s="80">
         <v>44630</v>
       </c>
-      <c r="W6" s="81">
+      <c r="W6" s="80">
         <v>44631</v>
       </c>
       <c r="X6" s="17">
         <v>44632</v>
       </c>
-      <c r="Z6" s="101" t="s">
+      <c r="Z6" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="AA6" s="100" t="s">
+      <c r="AA6" s="99" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3386,19 +3364,19 @@
       <c r="B7" s="18">
         <v>44570</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="72">
         <v>44571</v>
       </c>
-      <c r="D7" s="73">
+      <c r="D7" s="72">
         <v>44572</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="72">
         <v>44573</v>
       </c>
-      <c r="F7" s="73">
+      <c r="F7" s="72">
         <v>44574</v>
       </c>
-      <c r="G7" s="73">
+      <c r="G7" s="72">
         <v>44575</v>
       </c>
       <c r="H7" s="19">
@@ -3407,19 +3385,19 @@
       <c r="J7" s="18">
         <v>44605</v>
       </c>
-      <c r="K7" s="73">
+      <c r="K7" s="72">
         <v>44606</v>
       </c>
-      <c r="L7" s="73">
+      <c r="L7" s="72">
         <v>44607</v>
       </c>
-      <c r="M7" s="73">
+      <c r="M7" s="72">
         <v>44608</v>
       </c>
-      <c r="N7" s="73">
+      <c r="N7" s="72">
         <v>44609</v>
       </c>
-      <c r="O7" s="73">
+      <c r="O7" s="72">
         <v>44610</v>
       </c>
       <c r="P7" s="19">
@@ -3428,28 +3406,28 @@
       <c r="R7" s="18">
         <v>44633</v>
       </c>
-      <c r="S7" s="82">
+      <c r="S7" s="81">
         <v>44634</v>
       </c>
-      <c r="T7" s="83">
+      <c r="T7" s="82">
         <v>44635</v>
       </c>
-      <c r="U7" s="83">
+      <c r="U7" s="82">
         <v>44636</v>
       </c>
-      <c r="V7" s="83">
+      <c r="V7" s="82">
         <v>44637</v>
       </c>
-      <c r="W7" s="83">
+      <c r="W7" s="82">
         <v>44638</v>
       </c>
       <c r="X7" s="19">
         <v>44639</v>
       </c>
-      <c r="Z7" s="100" t="s">
+      <c r="Z7" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="AA7" s="100" t="s">
+      <c r="AA7" s="99" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3457,19 +3435,19 @@
       <c r="B8" s="20">
         <v>44577</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="72">
         <v>44578</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" s="72">
         <v>44579</v>
       </c>
-      <c r="E8" s="73">
+      <c r="E8" s="72">
         <v>44580</v>
       </c>
-      <c r="F8" s="73">
+      <c r="F8" s="72">
         <v>44581</v>
       </c>
-      <c r="G8" s="73">
+      <c r="G8" s="72">
         <v>44582</v>
       </c>
       <c r="H8" s="19">
@@ -3478,19 +3456,19 @@
       <c r="J8" s="20">
         <v>44612</v>
       </c>
-      <c r="K8" s="73">
+      <c r="K8" s="72">
         <v>44613</v>
       </c>
-      <c r="L8" s="73">
+      <c r="L8" s="72">
         <v>44614</v>
       </c>
-      <c r="M8" s="73">
+      <c r="M8" s="72">
         <v>44615</v>
       </c>
-      <c r="N8" s="73">
+      <c r="N8" s="72">
         <v>44616</v>
       </c>
-      <c r="O8" s="73">
+      <c r="O8" s="72">
         <v>44617</v>
       </c>
       <c r="P8" s="21">
@@ -3499,28 +3477,28 @@
       <c r="R8" s="20">
         <v>44640</v>
       </c>
-      <c r="S8" s="87">
+      <c r="S8" s="86">
         <v>44641</v>
       </c>
-      <c r="T8" s="84">
+      <c r="T8" s="83">
         <v>44642</v>
       </c>
-      <c r="U8" s="84">
+      <c r="U8" s="83">
         <v>44643</v>
       </c>
-      <c r="V8" s="84">
+      <c r="V8" s="83">
         <v>44644</v>
       </c>
-      <c r="W8" s="84">
+      <c r="W8" s="83">
         <v>44645</v>
       </c>
       <c r="X8" s="21">
         <v>44646</v>
       </c>
-      <c r="Z8" s="100" t="s">
+      <c r="Z8" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="AA8" s="102" t="s">
+      <c r="AA8" s="101" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3528,19 +3506,19 @@
       <c r="B9" s="20">
         <v>44584</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="72">
         <v>44585</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="72">
         <v>44586</v>
       </c>
-      <c r="E9" s="73">
+      <c r="E9" s="72">
         <v>44587</v>
       </c>
-      <c r="F9" s="73">
+      <c r="F9" s="72">
         <v>44588</v>
       </c>
-      <c r="G9" s="73">
+      <c r="G9" s="72">
         <v>44589</v>
       </c>
       <c r="H9" s="21">
@@ -3549,35 +3527,35 @@
       <c r="J9" s="42">
         <v>44619</v>
       </c>
-      <c r="K9" s="73">
+      <c r="K9" s="72">
         <v>44620</v>
       </c>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="75"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="74"/>
       <c r="R9" s="42">
         <v>44647</v>
       </c>
-      <c r="S9" s="85">
+      <c r="S9" s="84">
         <v>44648</v>
       </c>
-      <c r="T9" s="86">
+      <c r="T9" s="85">
         <v>44649</v>
       </c>
-      <c r="U9" s="86">
+      <c r="U9" s="85">
         <v>44650</v>
       </c>
-      <c r="V9" s="94">
+      <c r="V9" s="93">
         <v>44651</v>
       </c>
-      <c r="W9" s="74"/>
-      <c r="X9" s="75"/>
-      <c r="Z9" s="100" t="s">
+      <c r="W9" s="73"/>
+      <c r="X9" s="74"/>
+      <c r="Z9" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="AA9" s="100" t="s">
+      <c r="AA9" s="99" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3585,236 +3563,236 @@
       <c r="B10" s="42">
         <v>44591</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="72">
         <v>44592</v>
       </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="75"/>
-      <c r="J10" s="78">
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
+      <c r="J10" s="77">
         <v>20</v>
       </c>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="R10" s="78">
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="R10" s="77">
         <v>23</v>
       </c>
-      <c r="S10" s="77"/>
-      <c r="T10" s="77"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="77"/>
-      <c r="Z10" s="100" t="s">
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="Z10" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="AA10" s="100" t="s">
+      <c r="AA10" s="99" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" ht="15.6" customHeight="1" spans="2:27">
-      <c r="B11" s="76">
+      <c r="B11" s="75">
         <v>20</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="78">
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="77">
         <f>B11*8</f>
         <v>160</v>
       </c>
-      <c r="P11" s="90">
+      <c r="P11" s="89">
         <f>J10*8</f>
         <v>160</v>
       </c>
-      <c r="X11" s="78">
+      <c r="X11" s="77">
         <f>R10*8</f>
         <v>184</v>
       </c>
-      <c r="Z11" s="100" t="s">
+      <c r="Z11" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="AA11" s="100" t="s">
+      <c r="AA11" s="99" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" ht="17.4" customHeight="1" spans="2:24">
-      <c r="B13" s="62"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="127" t="s">
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="66"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="127" t="s">
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="65"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="93"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="127" t="s">
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="92"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="63"/>
-      <c r="X13" s="66"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="65"/>
     </row>
     <row r="14" ht="14.4" customHeight="1" spans="2:27">
-      <c r="B14" s="128" t="s">
+      <c r="B14" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="129" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="129" t="s">
+      <c r="C14" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="129" t="s">
+      <c r="E14" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="129" t="s">
+      <c r="F14" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="129" t="s">
+      <c r="G14" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="130" t="s">
+      <c r="H14" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="128" t="s">
+      <c r="J14" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="129" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="129" t="s">
+      <c r="K14" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="129" t="s">
+      <c r="M14" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="129" t="s">
+      <c r="N14" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="129" t="s">
+      <c r="O14" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="P14" s="130" t="s">
+      <c r="P14" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="R14" s="128" t="s">
+      <c r="R14" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="S14" s="129" t="s">
-        <v>8</v>
-      </c>
-      <c r="T14" s="129" t="s">
+      <c r="S14" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="U14" s="129" t="s">
+      <c r="U14" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="129" t="s">
+      <c r="V14" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="W14" s="129" t="s">
+      <c r="W14" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="X14" s="130" t="s">
+      <c r="X14" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="Z14" s="103"/>
-      <c r="AA14" s="100" t="s">
+      <c r="Z14" s="102"/>
+      <c r="AA14" s="99" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" ht="14.4" customHeight="1" spans="2:28">
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="73">
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="72">
         <v>44652</v>
       </c>
       <c r="H15" s="14">
         <v>44653</v>
       </c>
-      <c r="J15" s="52">
+      <c r="J15" s="51">
         <v>44682</v>
       </c>
-      <c r="K15" s="80">
+      <c r="K15" s="79">
         <v>44683</v>
       </c>
-      <c r="L15" s="81">
+      <c r="L15" s="80">
         <v>44684</v>
       </c>
-      <c r="M15" s="81">
+      <c r="M15" s="80">
         <v>44685</v>
       </c>
-      <c r="N15" s="81">
+      <c r="N15" s="80">
         <v>44686</v>
       </c>
-      <c r="O15" s="81">
+      <c r="O15" s="80">
         <v>44687</v>
       </c>
       <c r="P15" s="17">
         <v>44688</v>
       </c>
-      <c r="R15" s="70"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="73">
+      <c r="R15" s="69"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="72">
         <v>44713</v>
       </c>
-      <c r="V15" s="96">
+      <c r="V15" s="95">
         <v>44714</v>
       </c>
-      <c r="W15" s="96">
+      <c r="W15" s="95">
         <v>44715</v>
       </c>
       <c r="X15" s="14">
         <v>44716</v>
       </c>
-      <c r="Z15" s="100" t="s">
+      <c r="Z15" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="AA15" s="100" t="s">
+      <c r="AA15" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="AB15" s="100"/>
+      <c r="AB15" s="99"/>
     </row>
     <row r="16" ht="14.4" customHeight="1" spans="2:28">
       <c r="B16" s="15">
         <v>44654</v>
       </c>
-      <c r="C16" s="80">
+      <c r="C16" s="79">
         <v>44655</v>
       </c>
-      <c r="D16" s="81">
+      <c r="D16" s="80">
         <v>44656</v>
       </c>
-      <c r="E16" s="81">
+      <c r="E16" s="80">
         <v>44657</v>
       </c>
-      <c r="F16" s="81">
+      <c r="F16" s="80">
         <v>44658</v>
       </c>
-      <c r="G16" s="81">
+      <c r="G16" s="80">
         <v>44659</v>
       </c>
       <c r="H16" s="17">
@@ -3823,19 +3801,19 @@
       <c r="J16" s="18">
         <v>44689</v>
       </c>
-      <c r="K16" s="82">
+      <c r="K16" s="81">
         <v>44690</v>
       </c>
-      <c r="L16" s="83">
+      <c r="L16" s="82">
         <v>44691</v>
       </c>
-      <c r="M16" s="83">
+      <c r="M16" s="82">
         <v>44692</v>
       </c>
-      <c r="N16" s="83">
+      <c r="N16" s="82">
         <v>44693</v>
       </c>
-      <c r="O16" s="83">
+      <c r="O16" s="82">
         <v>44694</v>
       </c>
       <c r="P16" s="19">
@@ -3844,43 +3822,43 @@
       <c r="R16" s="15">
         <v>44717</v>
       </c>
-      <c r="S16" s="80">
+      <c r="S16" s="79">
         <v>44718</v>
       </c>
-      <c r="T16" s="80">
+      <c r="T16" s="79">
         <v>44719</v>
       </c>
-      <c r="U16" s="80">
+      <c r="U16" s="79">
         <v>44720</v>
       </c>
-      <c r="V16" s="80">
+      <c r="V16" s="79">
         <v>44721</v>
       </c>
-      <c r="W16" s="80">
+      <c r="W16" s="79">
         <v>44722</v>
       </c>
       <c r="X16" s="17">
         <v>44723</v>
       </c>
-      <c r="Z16" s="100" t="s">
+      <c r="Z16" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="AA16" s="100" t="s">
+      <c r="AA16" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="AB16" s="100"/>
+      <c r="AB16" s="99"/>
     </row>
     <row r="17" ht="14.4" customHeight="1" spans="2:28">
       <c r="B17" s="18">
         <v>44661</v>
       </c>
-      <c r="C17" s="82">
+      <c r="C17" s="81">
         <v>44662</v>
       </c>
-      <c r="D17" s="83">
+      <c r="D17" s="82">
         <v>44663</v>
       </c>
-      <c r="E17" s="83">
+      <c r="E17" s="82">
         <v>44664</v>
       </c>
       <c r="F17" s="48">
@@ -3895,19 +3873,19 @@
       <c r="J17" s="20">
         <v>44696</v>
       </c>
-      <c r="K17" s="82">
+      <c r="K17" s="81">
         <v>44697</v>
       </c>
-      <c r="L17" s="83">
+      <c r="L17" s="82">
         <v>44698</v>
       </c>
-      <c r="M17" s="83">
+      <c r="M17" s="82">
         <v>44699</v>
       </c>
-      <c r="N17" s="83">
+      <c r="N17" s="82">
         <v>44700</v>
       </c>
-      <c r="O17" s="83">
+      <c r="O17" s="82">
         <v>44701</v>
       </c>
       <c r="P17" s="19">
@@ -3916,29 +3894,29 @@
       <c r="R17" s="18">
         <v>44724</v>
       </c>
-      <c r="S17" s="80">
+      <c r="S17" s="79">
         <v>44725</v>
       </c>
-      <c r="T17" s="80">
+      <c r="T17" s="79">
         <v>44726</v>
       </c>
-      <c r="U17" s="80">
+      <c r="U17" s="79">
         <v>44727</v>
       </c>
-      <c r="V17" s="80">
+      <c r="V17" s="79">
         <v>44728</v>
       </c>
-      <c r="W17" s="80">
+      <c r="W17" s="79">
         <v>44729</v>
       </c>
       <c r="X17" s="19">
         <v>44730</v>
       </c>
-      <c r="Z17" s="104" t="s">
+      <c r="Z17" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="AA17" s="100"/>
-      <c r="AB17" s="100"/>
+      <c r="AA17" s="99"/>
+      <c r="AB17" s="99"/>
     </row>
     <row r="18" ht="14.4" customHeight="1" spans="2:26">
       <c r="B18" s="20">
@@ -3947,16 +3925,16 @@
       <c r="C18" s="48">
         <v>44669</v>
       </c>
-      <c r="D18" s="84">
+      <c r="D18" s="83">
         <v>44670</v>
       </c>
-      <c r="E18" s="84">
+      <c r="E18" s="83">
         <v>44671</v>
       </c>
-      <c r="F18" s="84">
+      <c r="F18" s="83">
         <v>44672</v>
       </c>
-      <c r="G18" s="84">
+      <c r="G18" s="83">
         <v>44673</v>
       </c>
       <c r="H18" s="21">
@@ -3965,19 +3943,19 @@
       <c r="J18" s="20">
         <v>44703</v>
       </c>
-      <c r="K18" s="87">
+      <c r="K18" s="86">
         <v>44704</v>
       </c>
-      <c r="L18" s="84">
+      <c r="L18" s="83">
         <v>44705</v>
       </c>
-      <c r="M18" s="84">
+      <c r="M18" s="83">
         <v>44706</v>
       </c>
-      <c r="N18" s="84">
+      <c r="N18" s="83">
         <v>44707</v>
       </c>
-      <c r="O18" s="84">
+      <c r="O18" s="83">
         <v>44708</v>
       </c>
       <c r="P18" s="21">
@@ -3986,273 +3964,273 @@
       <c r="R18" s="20">
         <v>44731</v>
       </c>
-      <c r="S18" s="80">
+      <c r="S18" s="79">
         <v>44732</v>
       </c>
-      <c r="T18" s="80">
+      <c r="T18" s="79">
         <v>44733</v>
       </c>
-      <c r="U18" s="80">
+      <c r="U18" s="79">
         <v>44734</v>
       </c>
-      <c r="V18" s="80">
+      <c r="V18" s="79">
         <v>44735</v>
       </c>
-      <c r="W18" s="80">
+      <c r="W18" s="79">
         <v>44736</v>
       </c>
       <c r="X18" s="21">
         <v>44737</v>
       </c>
-      <c r="Z18" s="100"/>
+      <c r="Z18" s="99"/>
     </row>
     <row r="19" ht="14.4" customHeight="1" spans="2:24">
       <c r="B19" s="42">
         <v>44675</v>
       </c>
-      <c r="C19" s="85">
+      <c r="C19" s="84">
         <v>44676</v>
       </c>
-      <c r="D19" s="86">
+      <c r="D19" s="85">
         <v>44677</v>
       </c>
-      <c r="E19" s="86">
+      <c r="E19" s="85">
         <v>44678</v>
       </c>
-      <c r="F19" s="86">
+      <c r="F19" s="85">
         <v>44679</v>
       </c>
-      <c r="G19" s="86">
+      <c r="G19" s="85">
         <v>44680</v>
       </c>
-      <c r="H19" s="55">
+      <c r="H19" s="54">
         <v>44681</v>
       </c>
       <c r="J19" s="42">
         <v>44710</v>
       </c>
-      <c r="K19" s="85">
+      <c r="K19" s="84">
         <v>44711</v>
       </c>
-      <c r="L19" s="94">
+      <c r="L19" s="93">
         <v>44712</v>
       </c>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="89"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="88"/>
       <c r="R19" s="42">
         <v>44738</v>
       </c>
-      <c r="S19" s="80">
+      <c r="S19" s="79">
         <v>44739</v>
       </c>
-      <c r="T19" s="80">
+      <c r="T19" s="79">
         <v>44740</v>
       </c>
-      <c r="U19" s="80">
+      <c r="U19" s="79">
         <v>44741</v>
       </c>
-      <c r="V19" s="80">
+      <c r="V19" s="79">
         <v>44742</v>
       </c>
-      <c r="W19" s="89"/>
-      <c r="X19" s="75"/>
+      <c r="W19" s="88"/>
+      <c r="X19" s="74"/>
     </row>
     <row r="20" ht="15.6" customHeight="1" spans="2:23">
-      <c r="B20" s="78">
+      <c r="B20" s="77">
         <v>18</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="R20" s="78">
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+      <c r="R20" s="77">
         <v>22</v>
       </c>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="77"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="76"/>
+      <c r="W20" s="76"/>
     </row>
     <row r="21" ht="15.6" customHeight="1" spans="8:27">
-      <c r="H21" s="78">
+      <c r="H21" s="77">
         <f>B20*8</f>
         <v>144</v>
       </c>
-      <c r="J21" s="78">
+      <c r="J21" s="77">
         <v>22</v>
       </c>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="78">
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="77">
         <f>J21*8</f>
         <v>176</v>
       </c>
-      <c r="X21" s="78">
+      <c r="X21" s="77">
         <f>R20*8</f>
         <v>176</v>
       </c>
-      <c r="Z21" s="105"/>
-      <c r="AA21" s="100" t="s">
+      <c r="Z21" s="104"/>
+      <c r="AA21" s="99" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="1" spans="26:28">
-      <c r="Z22" s="106" t="s">
+      <c r="Z22" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="AA22" s="107"/>
-      <c r="AB22" s="107"/>
+      <c r="AA22" s="106"/>
+      <c r="AB22" s="106"/>
     </row>
     <row r="23" ht="18.6" customHeight="1" spans="2:28">
-      <c r="B23" s="62"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="127" t="s">
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="66"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="127" t="s">
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="65"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="66"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="63"/>
-      <c r="T23" s="127" t="s">
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="65"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="63"/>
-      <c r="X23" s="66"/>
-      <c r="Z23" s="108"/>
-      <c r="AA23" s="108"/>
-      <c r="AB23" s="108"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="65"/>
+      <c r="Z23" s="107"/>
+      <c r="AA23" s="107"/>
+      <c r="AB23" s="107"/>
     </row>
     <row r="24" ht="14.4" customHeight="1" spans="2:24">
-      <c r="B24" s="128" t="s">
+      <c r="B24" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="129" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="129" t="s">
+      <c r="C24" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="129" t="s">
+      <c r="E24" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="129" t="s">
+      <c r="F24" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="129" t="s">
+      <c r="G24" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="130" t="s">
+      <c r="H24" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="128" t="s">
+      <c r="J24" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="K24" s="129" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="129" t="s">
+      <c r="K24" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="M24" s="129" t="s">
+      <c r="M24" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="N24" s="129" t="s">
+      <c r="N24" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="O24" s="129" t="s">
+      <c r="O24" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="P24" s="130" t="s">
+      <c r="P24" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="R24" s="128" t="s">
+      <c r="R24" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="S24" s="129" t="s">
-        <v>8</v>
-      </c>
-      <c r="T24" s="129" t="s">
+      <c r="S24" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="U24" s="129" t="s">
+      <c r="U24" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="V24" s="129" t="s">
+      <c r="V24" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="W24" s="129" t="s">
+      <c r="W24" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="X24" s="130" t="s">
+      <c r="X24" s="129" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="1" spans="2:24">
-      <c r="B25" s="70"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="73">
+      <c r="B25" s="69"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="72">
         <v>44743</v>
       </c>
       <c r="H25" s="14">
         <v>44744</v>
       </c>
-      <c r="J25" s="74"/>
-      <c r="K25" s="95">
+      <c r="J25" s="73"/>
+      <c r="K25" s="94">
         <v>44774</v>
       </c>
-      <c r="L25" s="96">
+      <c r="L25" s="95">
         <v>44775</v>
       </c>
-      <c r="M25" s="96">
+      <c r="M25" s="95">
         <v>44776</v>
       </c>
-      <c r="N25" s="96">
+      <c r="N25" s="95">
         <v>44777</v>
       </c>
-      <c r="O25" s="96">
+      <c r="O25" s="95">
         <v>44778</v>
       </c>
       <c r="P25" s="14">
         <v>44779</v>
       </c>
-      <c r="R25" s="70"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="73">
+      <c r="R25" s="69"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
+      <c r="V25" s="72">
         <v>44805</v>
       </c>
-      <c r="W25" s="96">
+      <c r="W25" s="95">
         <v>44806</v>
       </c>
       <c r="X25" s="14">
@@ -4263,19 +4241,19 @@
       <c r="B26" s="15">
         <v>44745</v>
       </c>
-      <c r="C26" s="80">
+      <c r="C26" s="79">
         <v>44746</v>
       </c>
-      <c r="D26" s="81">
+      <c r="D26" s="80">
         <v>44747</v>
       </c>
-      <c r="E26" s="81">
+      <c r="E26" s="80">
         <v>44748</v>
       </c>
-      <c r="F26" s="81">
+      <c r="F26" s="80">
         <v>44749</v>
       </c>
-      <c r="G26" s="81">
+      <c r="G26" s="80">
         <v>44750</v>
       </c>
       <c r="H26" s="17">
@@ -4284,19 +4262,19 @@
       <c r="J26" s="15">
         <v>44780</v>
       </c>
-      <c r="K26" s="80">
+      <c r="K26" s="79">
         <v>44781</v>
       </c>
-      <c r="L26" s="81">
+      <c r="L26" s="80">
         <v>44782</v>
       </c>
-      <c r="M26" s="81">
+      <c r="M26" s="80">
         <v>44783</v>
       </c>
-      <c r="N26" s="81">
+      <c r="N26" s="80">
         <v>44784</v>
       </c>
-      <c r="O26" s="81">
+      <c r="O26" s="80">
         <v>44785</v>
       </c>
       <c r="P26" s="17">
@@ -4305,19 +4283,19 @@
       <c r="R26" s="15">
         <v>44808</v>
       </c>
-      <c r="S26" s="80">
+      <c r="S26" s="79">
         <v>44809</v>
       </c>
-      <c r="T26" s="81">
+      <c r="T26" s="80">
         <v>44810</v>
       </c>
-      <c r="U26" s="81">
+      <c r="U26" s="80">
         <v>44811</v>
       </c>
-      <c r="V26" s="81">
+      <c r="V26" s="80">
         <v>44812</v>
       </c>
-      <c r="W26" s="81">
+      <c r="W26" s="80">
         <v>44813</v>
       </c>
       <c r="X26" s="17">
@@ -4328,19 +4306,19 @@
       <c r="B27" s="18">
         <v>44752</v>
       </c>
-      <c r="C27" s="82">
+      <c r="C27" s="81">
         <v>44753</v>
       </c>
-      <c r="D27" s="83">
+      <c r="D27" s="82">
         <v>44754</v>
       </c>
-      <c r="E27" s="83">
+      <c r="E27" s="82">
         <v>44755</v>
       </c>
-      <c r="F27" s="83">
+      <c r="F27" s="82">
         <v>44756</v>
       </c>
-      <c r="G27" s="83">
+      <c r="G27" s="82">
         <v>44757</v>
       </c>
       <c r="H27" s="19">
@@ -4352,16 +4330,16 @@
       <c r="K27" s="46">
         <v>44788</v>
       </c>
-      <c r="L27" s="83">
+      <c r="L27" s="82">
         <v>44789</v>
       </c>
-      <c r="M27" s="83">
+      <c r="M27" s="82">
         <v>44790</v>
       </c>
-      <c r="N27" s="83">
+      <c r="N27" s="82">
         <v>44791</v>
       </c>
-      <c r="O27" s="83">
+      <c r="O27" s="82">
         <v>44792</v>
       </c>
       <c r="P27" s="19">
@@ -4370,19 +4348,19 @@
       <c r="R27" s="18">
         <v>44815</v>
       </c>
-      <c r="S27" s="82">
+      <c r="S27" s="81">
         <v>44816</v>
       </c>
-      <c r="T27" s="83">
+      <c r="T27" s="82">
         <v>44817</v>
       </c>
-      <c r="U27" s="83">
+      <c r="U27" s="82">
         <v>44818</v>
       </c>
-      <c r="V27" s="83">
+      <c r="V27" s="82">
         <v>44819</v>
       </c>
-      <c r="W27" s="83">
+      <c r="W27" s="82">
         <v>44820</v>
       </c>
       <c r="X27" s="19">
@@ -4393,19 +4371,19 @@
       <c r="B28" s="20">
         <v>44759</v>
       </c>
-      <c r="C28" s="87">
+      <c r="C28" s="86">
         <v>44760</v>
       </c>
-      <c r="D28" s="84">
+      <c r="D28" s="83">
         <v>44761</v>
       </c>
-      <c r="E28" s="84">
+      <c r="E28" s="83">
         <v>44762</v>
       </c>
-      <c r="F28" s="84">
+      <c r="F28" s="83">
         <v>44763</v>
       </c>
-      <c r="G28" s="84">
+      <c r="G28" s="83">
         <v>44764</v>
       </c>
       <c r="H28" s="21">
@@ -4414,19 +4392,19 @@
       <c r="J28" s="20">
         <v>44794</v>
       </c>
-      <c r="K28" s="87">
+      <c r="K28" s="86">
         <v>44795</v>
       </c>
-      <c r="L28" s="84">
+      <c r="L28" s="83">
         <v>44796</v>
       </c>
-      <c r="M28" s="84">
+      <c r="M28" s="83">
         <v>44797</v>
       </c>
-      <c r="N28" s="84">
+      <c r="N28" s="83">
         <v>44798</v>
       </c>
-      <c r="O28" s="84">
+      <c r="O28" s="83">
         <v>44799</v>
       </c>
       <c r="P28" s="21">
@@ -4435,25 +4413,25 @@
       <c r="R28" s="20">
         <v>44822</v>
       </c>
-      <c r="S28" s="87">
+      <c r="S28" s="86">
         <v>44823</v>
       </c>
-      <c r="T28" s="84">
+      <c r="T28" s="83">
         <v>44824</v>
       </c>
-      <c r="U28" s="84">
+      <c r="U28" s="83">
         <v>44825</v>
       </c>
-      <c r="V28" s="84">
+      <c r="V28" s="83">
         <v>44826</v>
       </c>
-      <c r="W28" s="84">
+      <c r="W28" s="83">
         <v>44827</v>
       </c>
       <c r="X28" s="21">
         <v>44828</v>
       </c>
-      <c r="AA28" s="100"/>
+      <c r="AA28" s="99"/>
     </row>
     <row r="29" ht="14.4" customHeight="1" spans="2:24">
       <c r="B29" s="42">
@@ -4462,16 +4440,16 @@
       <c r="C29" s="48">
         <v>44767</v>
       </c>
-      <c r="D29" s="86">
+      <c r="D29" s="85">
         <v>44768</v>
       </c>
-      <c r="E29" s="84">
+      <c r="E29" s="83">
         <v>44769</v>
       </c>
-      <c r="F29" s="84">
+      <c r="F29" s="83">
         <v>44770</v>
       </c>
-      <c r="G29" s="86">
+      <c r="G29" s="85">
         <v>44771</v>
       </c>
       <c r="H29" s="49">
@@ -4480,259 +4458,259 @@
       <c r="J29" s="42">
         <v>44801</v>
       </c>
-      <c r="K29" s="85">
+      <c r="K29" s="84">
         <v>44802</v>
       </c>
-      <c r="L29" s="86">
+      <c r="L29" s="85">
         <v>44803</v>
       </c>
-      <c r="M29" s="94">
+      <c r="M29" s="93">
         <v>44804</v>
       </c>
-      <c r="N29" s="74"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="75"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="74"/>
       <c r="R29" s="42">
         <v>44829</v>
       </c>
-      <c r="S29" s="85">
+      <c r="S29" s="84">
         <v>44830</v>
       </c>
-      <c r="T29" s="86">
+      <c r="T29" s="85">
         <v>44831</v>
       </c>
-      <c r="U29" s="86">
+      <c r="U29" s="85">
         <v>44832</v>
       </c>
-      <c r="V29" s="86">
+      <c r="V29" s="85">
         <v>44833</v>
       </c>
-      <c r="W29" s="94">
+      <c r="W29" s="93">
         <v>44834</v>
       </c>
-      <c r="X29" s="75"/>
+      <c r="X29" s="74"/>
     </row>
     <row r="30" ht="15.6" customHeight="1" spans="2:24">
       <c r="B30" s="50">
         <v>44773</v>
       </c>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="78">
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="77">
         <f>B31*8</f>
         <v>160</v>
       </c>
-      <c r="J30" s="78">
+      <c r="J30" s="77">
         <v>22</v>
       </c>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="78">
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="76"/>
+      <c r="P30" s="77">
         <f>J30*8</f>
         <v>176</v>
       </c>
-      <c r="R30" s="78">
+      <c r="R30" s="77">
         <v>22</v>
       </c>
-      <c r="S30" s="77"/>
-      <c r="T30" s="77"/>
-      <c r="U30" s="77"/>
-      <c r="V30" s="77"/>
-      <c r="W30" s="77"/>
-      <c r="X30" s="78">
+      <c r="S30" s="76"/>
+      <c r="T30" s="76"/>
+      <c r="U30" s="76"/>
+      <c r="V30" s="76"/>
+      <c r="W30" s="76"/>
+      <c r="X30" s="77">
         <f>R30*8</f>
         <v>176</v>
       </c>
     </row>
     <row r="31" ht="16.2" customHeight="1" spans="2:2">
-      <c r="B31" s="78">
+      <c r="B31" s="77">
         <v>20</v>
       </c>
     </row>
     <row r="32" ht="17.4" customHeight="1" spans="2:29">
-      <c r="B32" s="62"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="127" t="s">
+      <c r="B32" s="61"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="66"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="127" t="s">
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="65"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="M32" s="65"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="66"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="63"/>
-      <c r="T32" s="127" t="s">
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="65"/>
+      <c r="R32" s="61"/>
+      <c r="S32" s="62"/>
+      <c r="T32" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="U32" s="65"/>
-      <c r="V32" s="65"/>
-      <c r="W32" s="63"/>
-      <c r="X32" s="66"/>
-      <c r="Z32" s="109">
+      <c r="U32" s="64"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="62"/>
+      <c r="X32" s="65"/>
+      <c r="Z32" s="108">
         <f>H11+P11+X11+H21+P21+X21+H30+P30+X30+H40+P40+X40</f>
         <v>1984</v>
       </c>
-      <c r="AA32" s="110" t="s">
+      <c r="AA32" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="AB32" s="110"/>
-      <c r="AC32" s="111"/>
+      <c r="AB32" s="109"/>
+      <c r="AC32" s="110"/>
     </row>
     <row r="33" ht="14.4" customHeight="1" spans="2:29">
-      <c r="B33" s="128" t="s">
+      <c r="B33" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="129" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="129" t="s">
+      <c r="C33" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="129" t="s">
+      <c r="E33" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="129" t="s">
+      <c r="F33" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="129" t="s">
+      <c r="G33" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="130" t="s">
+      <c r="H33" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="J33" s="128" t="s">
+      <c r="J33" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="K33" s="129" t="s">
-        <v>8</v>
-      </c>
-      <c r="L33" s="129" t="s">
+      <c r="K33" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="M33" s="129" t="s">
+      <c r="M33" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="N33" s="129" t="s">
+      <c r="N33" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="O33" s="129" t="s">
+      <c r="O33" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="P33" s="130" t="s">
+      <c r="P33" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="R33" s="128" t="s">
+      <c r="R33" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="S33" s="129" t="s">
-        <v>8</v>
-      </c>
-      <c r="T33" s="129" t="s">
+      <c r="S33" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="T33" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="U33" s="129" t="s">
+      <c r="U33" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="V33" s="129" t="s">
+      <c r="V33" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="W33" s="129" t="s">
+      <c r="W33" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="X33" s="130" t="s">
+      <c r="X33" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="Z33" s="112">
+      <c r="Z33" s="111">
         <v>1752</v>
       </c>
-      <c r="AA33" s="113" t="s">
+      <c r="AA33" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="AB33" s="113"/>
-      <c r="AC33" s="114"/>
+      <c r="AB33" s="112"/>
+      <c r="AC33" s="113"/>
     </row>
     <row r="34" ht="14.4" customHeight="1" spans="2:29">
-      <c r="B34" s="70"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
       <c r="H34" s="44">
         <v>44835</v>
       </c>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="78"/>
       <c r="L34" s="41">
         <v>44866</v>
       </c>
-      <c r="M34" s="96">
+      <c r="M34" s="95">
         <v>44867</v>
       </c>
-      <c r="N34" s="96">
+      <c r="N34" s="95">
         <v>44868</v>
       </c>
-      <c r="O34" s="96">
+      <c r="O34" s="95">
         <v>44869</v>
       </c>
       <c r="P34" s="14">
         <v>44870</v>
       </c>
-      <c r="R34" s="70"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="72"/>
-      <c r="V34" s="73">
+      <c r="R34" s="69"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="71"/>
+      <c r="V34" s="72">
         <v>44896</v>
       </c>
-      <c r="W34" s="96">
+      <c r="W34" s="95">
         <v>44897</v>
       </c>
       <c r="X34" s="14">
         <v>44898</v>
       </c>
-      <c r="Z34" s="115">
+      <c r="Z34" s="114">
         <f>Z32-Z33</f>
         <v>232</v>
       </c>
-      <c r="AA34" s="113" t="s">
+      <c r="AA34" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="AB34" s="113"/>
-      <c r="AC34" s="114"/>
+      <c r="AB34" s="112"/>
+      <c r="AC34" s="113"/>
     </row>
     <row r="35" ht="15" customHeight="1" spans="2:29">
       <c r="B35" s="15">
         <v>44836</v>
       </c>
-      <c r="C35" s="80">
+      <c r="C35" s="79">
         <v>44837</v>
       </c>
-      <c r="D35" s="81">
+      <c r="D35" s="80">
         <v>44838</v>
       </c>
-      <c r="E35" s="81">
+      <c r="E35" s="80">
         <v>44839</v>
       </c>
-      <c r="F35" s="81">
+      <c r="F35" s="80">
         <v>44840</v>
       </c>
-      <c r="G35" s="81">
+      <c r="G35" s="80">
         <v>44841</v>
       </c>
       <c r="H35" s="17">
@@ -4741,19 +4719,19 @@
       <c r="J35" s="15">
         <v>44871</v>
       </c>
-      <c r="K35" s="80">
+      <c r="K35" s="79">
         <v>44872</v>
       </c>
-      <c r="L35" s="81">
+      <c r="L35" s="80">
         <v>44873</v>
       </c>
-      <c r="M35" s="81">
+      <c r="M35" s="80">
         <v>44874</v>
       </c>
-      <c r="N35" s="81">
+      <c r="N35" s="80">
         <v>44875</v>
       </c>
-      <c r="O35" s="81">
+      <c r="O35" s="80">
         <v>44876</v>
       </c>
       <c r="P35" s="17">
@@ -4762,51 +4740,51 @@
       <c r="R35" s="15">
         <v>44899</v>
       </c>
-      <c r="S35" s="80">
+      <c r="S35" s="79">
         <v>44900</v>
       </c>
       <c r="T35" s="16">
         <v>44901</v>
       </c>
-      <c r="U35" s="81">
+      <c r="U35" s="80">
         <v>44902</v>
       </c>
       <c r="V35" s="16">
         <v>44903</v>
       </c>
-      <c r="W35" s="81">
+      <c r="W35" s="80">
         <v>44904</v>
       </c>
       <c r="X35" s="17">
         <v>44905</v>
       </c>
-      <c r="Z35" s="116">
+      <c r="Z35" s="115">
         <f>Z34/8</f>
         <v>29</v>
       </c>
-      <c r="AA35" s="117" t="s">
+      <c r="AA35" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="AB35" s="117"/>
-      <c r="AC35" s="118"/>
+      <c r="AB35" s="116"/>
+      <c r="AC35" s="117"/>
     </row>
     <row r="36" ht="14.4" customHeight="1" spans="2:24">
       <c r="B36" s="18">
         <v>44843</v>
       </c>
-      <c r="C36" s="82">
+      <c r="C36" s="81">
         <v>44844</v>
       </c>
-      <c r="D36" s="83">
+      <c r="D36" s="82">
         <v>44845</v>
       </c>
       <c r="E36" s="45">
         <v>44846</v>
       </c>
-      <c r="F36" s="83">
+      <c r="F36" s="82">
         <v>44847</v>
       </c>
-      <c r="G36" s="83">
+      <c r="G36" s="82">
         <v>44848</v>
       </c>
       <c r="H36" s="19">
@@ -4815,19 +4793,19 @@
       <c r="J36" s="18">
         <v>44878</v>
       </c>
-      <c r="K36" s="82">
+      <c r="K36" s="81">
         <v>44879</v>
       </c>
-      <c r="L36" s="83">
+      <c r="L36" s="82">
         <v>44880</v>
       </c>
-      <c r="M36" s="83">
+      <c r="M36" s="82">
         <v>44881</v>
       </c>
-      <c r="N36" s="83">
+      <c r="N36" s="82">
         <v>44882</v>
       </c>
-      <c r="O36" s="83">
+      <c r="O36" s="82">
         <v>44883</v>
       </c>
       <c r="P36" s="19">
@@ -4836,19 +4814,19 @@
       <c r="R36" s="18">
         <v>44906</v>
       </c>
-      <c r="S36" s="82">
+      <c r="S36" s="81">
         <v>44907</v>
       </c>
-      <c r="T36" s="83">
+      <c r="T36" s="82">
         <v>44908</v>
       </c>
-      <c r="U36" s="83">
+      <c r="U36" s="82">
         <v>44909</v>
       </c>
-      <c r="V36" s="83">
+      <c r="V36" s="82">
         <v>44910</v>
       </c>
-      <c r="W36" s="83">
+      <c r="W36" s="82">
         <v>44911</v>
       </c>
       <c r="X36" s="19">
@@ -4859,19 +4837,19 @@
       <c r="B37" s="20">
         <v>44850</v>
       </c>
-      <c r="C37" s="82">
+      <c r="C37" s="81">
         <v>44851</v>
       </c>
-      <c r="D37" s="83">
+      <c r="D37" s="82">
         <v>44852</v>
       </c>
-      <c r="E37" s="83">
+      <c r="E37" s="82">
         <v>44853</v>
       </c>
-      <c r="F37" s="83">
+      <c r="F37" s="82">
         <v>44854</v>
       </c>
-      <c r="G37" s="83">
+      <c r="G37" s="82">
         <v>44855</v>
       </c>
       <c r="H37" s="19">
@@ -4880,19 +4858,19 @@
       <c r="J37" s="20">
         <v>44885</v>
       </c>
-      <c r="K37" s="87">
+      <c r="K37" s="86">
         <v>44886</v>
       </c>
-      <c r="L37" s="84">
+      <c r="L37" s="83">
         <v>44887</v>
       </c>
-      <c r="M37" s="84">
+      <c r="M37" s="83">
         <v>44888</v>
       </c>
-      <c r="N37" s="84">
+      <c r="N37" s="83">
         <v>44889</v>
       </c>
-      <c r="O37" s="84">
+      <c r="O37" s="83">
         <v>44890</v>
       </c>
       <c r="P37" s="21">
@@ -4901,19 +4879,19 @@
       <c r="R37" s="20">
         <v>44913</v>
       </c>
-      <c r="S37" s="87">
+      <c r="S37" s="86">
         <v>44914</v>
       </c>
-      <c r="T37" s="84">
+      <c r="T37" s="83">
         <v>44915</v>
       </c>
-      <c r="U37" s="84">
+      <c r="U37" s="83">
         <v>44916</v>
       </c>
-      <c r="V37" s="84">
+      <c r="V37" s="83">
         <v>44917</v>
       </c>
-      <c r="W37" s="84">
+      <c r="W37" s="83">
         <v>44918</v>
       </c>
       <c r="X37" s="21">
@@ -4924,19 +4902,19 @@
       <c r="B38" s="20">
         <v>44857</v>
       </c>
-      <c r="C38" s="87">
+      <c r="C38" s="86">
         <v>44858</v>
       </c>
-      <c r="D38" s="84">
+      <c r="D38" s="83">
         <v>44859</v>
       </c>
-      <c r="E38" s="84">
+      <c r="E38" s="83">
         <v>44860</v>
       </c>
-      <c r="F38" s="84">
+      <c r="F38" s="83">
         <v>44861</v>
       </c>
-      <c r="G38" s="84">
+      <c r="G38" s="83">
         <v>44862</v>
       </c>
       <c r="H38" s="21">
@@ -4945,37 +4923,37 @@
       <c r="J38" s="42">
         <v>44892</v>
       </c>
-      <c r="K38" s="85">
+      <c r="K38" s="84">
         <v>44893</v>
       </c>
       <c r="L38" s="43">
         <v>44894</v>
       </c>
-      <c r="M38" s="94">
+      <c r="M38" s="93">
         <v>44895</v>
       </c>
-      <c r="N38" s="74"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="75"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="74"/>
       <c r="R38" s="22">
         <v>44920</v>
       </c>
       <c r="S38" s="22">
         <v>44921</v>
       </c>
-      <c r="T38" s="86">
+      <c r="T38" s="85">
         <v>44922</v>
       </c>
-      <c r="U38" s="86">
+      <c r="U38" s="85">
         <v>44923</v>
       </c>
-      <c r="V38" s="86">
+      <c r="V38" s="85">
         <v>44924</v>
       </c>
-      <c r="W38" s="86">
+      <c r="W38" s="85">
         <v>44925</v>
       </c>
-      <c r="X38" s="55">
+      <c r="X38" s="54">
         <v>44926</v>
       </c>
     </row>
@@ -4983,129 +4961,129 @@
       <c r="B39" s="42">
         <v>44864</v>
       </c>
-      <c r="C39" s="88">
+      <c r="C39" s="87">
         <v>44865</v>
       </c>
-      <c r="D39" s="89"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="75"/>
-      <c r="J39" s="78">
+      <c r="D39" s="88"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="74"/>
+      <c r="J39" s="77">
         <v>20</v>
       </c>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="77"/>
-      <c r="N39" s="77"/>
-      <c r="O39" s="77"/>
-      <c r="R39" s="78">
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="76"/>
+      <c r="O39" s="76"/>
+      <c r="R39" s="77">
         <v>19</v>
       </c>
-      <c r="S39" s="77"/>
-      <c r="T39" s="77"/>
-      <c r="U39" s="77"/>
-      <c r="V39" s="77"/>
-      <c r="W39" s="77"/>
+      <c r="S39" s="76"/>
+      <c r="T39" s="76"/>
+      <c r="U39" s="76"/>
+      <c r="V39" s="76"/>
+      <c r="W39" s="76"/>
     </row>
     <row r="40" ht="15.6" customHeight="1" spans="2:29">
-      <c r="B40" s="78">
+      <c r="B40" s="77">
         <v>20</v>
       </c>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="78">
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="77">
         <f>B40*8</f>
         <v>160</v>
       </c>
-      <c r="P40" s="78">
+      <c r="P40" s="77">
         <f>J39*8</f>
         <v>160</v>
       </c>
-      <c r="X40" s="78">
+      <c r="X40" s="77">
         <f>R39*8</f>
         <v>152</v>
       </c>
-      <c r="AA40" s="119" t="s">
+      <c r="AA40" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="AB40" s="119"/>
-      <c r="AC40" s="119"/>
+      <c r="AB40" s="118"/>
+      <c r="AC40" s="118"/>
     </row>
     <row r="41" ht="15.6" customHeight="1" spans="26:29">
-      <c r="Z41" s="120"/>
-      <c r="AA41" s="121" t="s">
+      <c r="Z41" s="119"/>
+      <c r="AA41" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="AB41" s="121" t="s">
+      <c r="AB41" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="AC41" s="121" t="s">
+      <c r="AC41" s="120" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" ht="15.6" customHeight="1" spans="26:29">
-      <c r="Z42" s="122" t="s">
+      <c r="Z42" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="AA42" s="121" t="s">
+      <c r="AA42" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="AB42" s="121" t="s">
+      <c r="AB42" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="AC42" s="123"/>
+      <c r="AC42" s="122"/>
     </row>
     <row r="43" ht="15.6" customHeight="1" spans="26:29">
-      <c r="Z43" s="124">
+      <c r="Z43" s="123">
         <v>1</v>
       </c>
-      <c r="AA43" s="123" t="s">
+      <c r="AA43" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="AB43" s="123" t="s">
+      <c r="AB43" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="AC43" s="123" t="s">
+      <c r="AC43" s="122" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="44" ht="15.6" customHeight="1" spans="26:29">
-      <c r="Z44" s="125">
+      <c r="Z44" s="124">
         <v>2</v>
       </c>
-      <c r="AA44" s="123" t="s">
+      <c r="AA44" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="AB44" s="123" t="s">
+      <c r="AB44" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="AC44" s="123" t="s">
+      <c r="AC44" s="122" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="45" ht="15.6" customHeight="1" spans="26:29">
-      <c r="Z45" s="121">
+      <c r="Z45" s="120">
         <v>3</v>
       </c>
-      <c r="AA45" s="123" t="s">
+      <c r="AA45" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="AB45" s="123" t="s">
+      <c r="AB45" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="AC45" s="123" t="s">
+      <c r="AC45" s="122" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="46" ht="15.6" customHeight="1" spans="26:29">
-      <c r="Z46" s="121"/>
-      <c r="AA46" s="126"/>
-      <c r="AB46" s="126"/>
-      <c r="AC46" s="123"/>
+      <c r="Z46" s="120"/>
+      <c r="AA46" s="125"/>
+      <c r="AB46" s="125"/>
+      <c r="AC46" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -6894,7 +6872,7 @@
   <sheetPr/>
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
@@ -7486,7 +7464,7 @@
   <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
@@ -7510,34 +7488,34 @@
       <c r="K2" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
     </row>
     <row r="3" ht="14.4" customHeight="1" spans="10:14">
       <c r="J3" s="35"/>
       <c r="K3" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
     </row>
     <row r="4" ht="14.4" customHeight="1" spans="10:14">
       <c r="J4" s="36"/>
       <c r="K4" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="10:14">
-      <c r="J5" s="54"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
     </row>
     <row r="6" ht="16.2" customHeight="1" spans="2:16">
       <c r="B6" s="1" t="s">
@@ -7675,13 +7653,13 @@
       </c>
     </row>
     <row r="18" ht="14.4" customHeight="1" spans="2:7">
-      <c r="B18" s="57">
+      <c r="B18" s="56">
         <v>3</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G18" s="11">
@@ -7690,13 +7668,13 @@
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="1" spans="2:7">
-      <c r="B19" s="57">
+      <c r="B19" s="56">
         <v>4</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G19" s="11">
@@ -7705,13 +7683,13 @@
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="1" spans="2:7">
-      <c r="B20" s="57">
+      <c r="B20" s="56">
         <v>5</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G20" s="11">
@@ -7730,7 +7708,7 @@
       </c>
     </row>
     <row r="22" ht="14.4" customHeight="1" spans="2:7">
-      <c r="B22" s="57">
+      <c r="B22" s="56">
         <v>7</v>
       </c>
       <c r="C22" s="13" t="s">
@@ -7764,7 +7742,7 @@
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="1" spans="2:7">
-      <c r="B25" s="57">
+      <c r="B25" s="56">
         <v>10</v>
       </c>
       <c r="C25" s="13" t="s">
@@ -7778,7 +7756,7 @@
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="1" spans="2:7">
-      <c r="B26" s="57">
+      <c r="B26" s="56">
         <v>11</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -7792,13 +7770,13 @@
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="1" spans="2:7">
-      <c r="B27" s="57">
+      <c r="B27" s="56">
         <v>12</v>
       </c>
-      <c r="C27" s="51">
+      <c r="C27" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E27" s="51">
+      <c r="E27" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G27" s="11">
@@ -7807,13 +7785,13 @@
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="1" spans="2:7">
-      <c r="B28" s="57">
+      <c r="B28" s="56">
         <v>13</v>
       </c>
-      <c r="C28" s="51">
+      <c r="C28" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E28" s="51">
+      <c r="E28" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G28" s="11">
@@ -7822,13 +7800,13 @@
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="1" spans="2:7">
-      <c r="B29" s="57">
+      <c r="B29" s="56">
         <v>14</v>
       </c>
-      <c r="C29" s="51">
+      <c r="C29" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E29" s="51">
+      <c r="E29" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G29" s="11">
@@ -7857,13 +7835,13 @@
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="1" spans="2:7">
-      <c r="B32" s="57">
+      <c r="B32" s="56">
         <v>17</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E32" s="51">
+      <c r="E32" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G32" s="11">
@@ -7872,13 +7850,13 @@
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="1" spans="2:7">
-      <c r="B33" s="57">
+      <c r="B33" s="56">
         <v>18</v>
       </c>
-      <c r="C33" s="51">
+      <c r="C33" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E33" s="51">
+      <c r="E33" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G33" s="11">
@@ -7887,13 +7865,13 @@
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="1" spans="2:7">
-      <c r="B34" s="57">
+      <c r="B34" s="56">
         <v>19</v>
       </c>
-      <c r="C34" s="51">
+      <c r="C34" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E34" s="51">
+      <c r="E34" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G34" s="11">
@@ -7902,13 +7880,13 @@
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="1" spans="2:7">
-      <c r="B35" s="57">
+      <c r="B35" s="56">
         <v>20</v>
       </c>
-      <c r="C35" s="51">
+      <c r="C35" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E35" s="51">
+      <c r="E35" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G35" s="11">
@@ -7917,13 +7895,13 @@
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="1" spans="2:7">
-      <c r="B36" s="57">
+      <c r="B36" s="56">
         <v>21</v>
       </c>
-      <c r="C36" s="51">
+      <c r="C36" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E36" s="51">
+      <c r="E36" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G36" s="11">
@@ -7952,13 +7930,13 @@
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="1" spans="2:7">
-      <c r="B39" s="57">
+      <c r="B39" s="56">
         <v>24</v>
       </c>
-      <c r="C39" s="51">
+      <c r="C39" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E39" s="51">
+      <c r="E39" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G39" s="11">
@@ -7967,13 +7945,13 @@
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="1" spans="2:7">
-      <c r="B40" s="57">
+      <c r="B40" s="56">
         <v>25</v>
       </c>
-      <c r="C40" s="51">
+      <c r="C40" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E40" s="51">
+      <c r="E40" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G40" s="11">
@@ -7982,13 +7960,13 @@
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="1" spans="2:7">
-      <c r="B41" s="57">
+      <c r="B41" s="56">
         <v>26</v>
       </c>
-      <c r="C41" s="51">
+      <c r="C41" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E41" s="51">
+      <c r="E41" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G41" s="11">
@@ -7997,13 +7975,13 @@
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="1" spans="2:7">
-      <c r="B42" s="57">
+      <c r="B42" s="56">
         <v>27</v>
       </c>
-      <c r="C42" s="51">
+      <c r="C42" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E42" s="51">
+      <c r="E42" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G42" s="11">
@@ -8012,13 +7990,13 @@
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="1" spans="2:7">
-      <c r="B43" s="57">
+      <c r="B43" s="56">
         <v>28</v>
       </c>
-      <c r="C43" s="51">
+      <c r="C43" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E43" s="51">
+      <c r="E43" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G43" s="11">
@@ -8047,13 +8025,13 @@
       </c>
     </row>
     <row r="46" ht="14.4" customHeight="1" spans="2:7">
-      <c r="B46" s="57">
+      <c r="B46" s="56">
         <v>31</v>
       </c>
-      <c r="C46" s="51">
+      <c r="C46" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E46" s="51">
+      <c r="E46" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G46" s="11">
@@ -8069,7 +8047,7 @@
       </c>
     </row>
     <row r="48" ht="14.4" customHeight="1" spans="7:7">
-      <c r="G48" s="58">
+      <c r="G48" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8156,6 +8134,7 @@
       <c r="H62" s="32"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="1" objects="1"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -8177,7 +8156,7 @@
   <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
@@ -8201,34 +8180,34 @@
       <c r="K2" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
     </row>
     <row r="3" ht="14.4" customHeight="1" spans="10:14">
       <c r="J3" s="35"/>
       <c r="K3" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
     </row>
     <row r="4" ht="14.4" customHeight="1" spans="10:14">
       <c r="J4" s="36"/>
       <c r="K4" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="10:14">
-      <c r="J5" s="54"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
     </row>
     <row r="6" ht="16.2" customHeight="1" spans="2:16">
       <c r="B6" s="1" t="s">
@@ -8348,10 +8327,10 @@
       <c r="B16" s="12">
         <v>1</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G16" s="11">
@@ -8363,10 +8342,10 @@
       <c r="B17" s="12">
         <v>2</v>
       </c>
-      <c r="C17" s="51">
+      <c r="C17" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G17" s="11">
@@ -8378,10 +8357,10 @@
       <c r="B18" s="12">
         <v>3</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G18" s="11">
@@ -8393,10 +8372,10 @@
       <c r="B19" s="12">
         <v>4</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G19" s="11">
@@ -8428,10 +8407,10 @@
       <c r="B22" s="12">
         <v>7</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G22" s="11">
@@ -8443,10 +8422,10 @@
       <c r="B23" s="12">
         <v>8</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G23" s="11">
@@ -8458,10 +8437,10 @@
       <c r="B24" s="12">
         <v>9</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E24" s="51">
+      <c r="E24" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G24" s="11">
@@ -8473,10 +8452,10 @@
       <c r="B25" s="12">
         <v>10</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E25" s="51">
+      <c r="E25" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G25" s="11">
@@ -8488,10 +8467,10 @@
       <c r="B26" s="12">
         <v>11</v>
       </c>
-      <c r="C26" s="51">
+      <c r="C26" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E26" s="51">
+      <c r="E26" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G26" s="11">
@@ -8523,10 +8502,10 @@
       <c r="B29" s="12">
         <v>14</v>
       </c>
-      <c r="C29" s="51">
+      <c r="C29" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E29" s="51">
+      <c r="E29" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G29" s="11">
@@ -8538,10 +8517,10 @@
       <c r="B30" s="12">
         <v>15</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E30" s="51">
+      <c r="E30" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G30" s="11">
@@ -8553,10 +8532,10 @@
       <c r="B31" s="12">
         <v>16</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E31" s="51">
+      <c r="E31" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G31" s="11">
@@ -8568,10 +8547,10 @@
       <c r="B32" s="12">
         <v>17</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E32" s="51">
+      <c r="E32" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G32" s="11">
@@ -8583,10 +8562,10 @@
       <c r="B33" s="12">
         <v>18</v>
       </c>
-      <c r="C33" s="51">
+      <c r="C33" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E33" s="51">
+      <c r="E33" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G33" s="11">
@@ -8618,10 +8597,10 @@
       <c r="B36" s="12">
         <v>21</v>
       </c>
-      <c r="C36" s="51">
+      <c r="C36" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E36" s="51">
+      <c r="E36" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G36" s="11">
@@ -8633,10 +8612,10 @@
       <c r="B37" s="12">
         <v>22</v>
       </c>
-      <c r="C37" s="51">
+      <c r="C37" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E37" s="51">
+      <c r="E37" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G37" s="11">
@@ -8648,10 +8627,10 @@
       <c r="B38" s="12">
         <v>23</v>
       </c>
-      <c r="C38" s="51">
+      <c r="C38" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E38" s="51">
+      <c r="E38" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G38" s="11">
@@ -8663,10 +8642,10 @@
       <c r="B39" s="12">
         <v>24</v>
       </c>
-      <c r="C39" s="51">
+      <c r="C39" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E39" s="51">
+      <c r="E39" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G39" s="11">
@@ -8678,10 +8657,10 @@
       <c r="B40" s="12">
         <v>25</v>
       </c>
-      <c r="C40" s="51">
+      <c r="C40" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E40" s="51">
+      <c r="E40" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G40" s="11">
@@ -8713,10 +8692,10 @@
       <c r="B43" s="12">
         <v>28</v>
       </c>
-      <c r="C43" s="51">
+      <c r="C43" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E43" s="51">
+      <c r="E43" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G43" s="11">
@@ -8779,13 +8758,13 @@
       </c>
     </row>
     <row r="57" ht="14.4" customHeight="1" spans="2:8">
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
     </row>
     <row r="58" ht="14.4" customHeight="1" spans="2:8">
       <c r="B58" s="32" t="s">
@@ -8857,7 +8836,7 @@
   <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
@@ -8881,34 +8860,34 @@
       <c r="K2" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
     </row>
     <row r="3" ht="14.4" customHeight="1" spans="10:14">
       <c r="J3" s="35"/>
       <c r="K3" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
     </row>
     <row r="4" ht="14.4" customHeight="1" spans="10:14">
       <c r="J4" s="36"/>
       <c r="K4" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="10:14">
-      <c r="J5" s="54"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
     </row>
     <row r="6" ht="16.2" customHeight="1" spans="2:16">
       <c r="B6" s="1" t="s">
@@ -9028,10 +9007,10 @@
       <c r="B16" s="12">
         <v>1</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G16" s="11">
@@ -9043,10 +9022,10 @@
       <c r="B17" s="12">
         <v>2</v>
       </c>
-      <c r="C17" s="51">
+      <c r="C17" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G17" s="11">
@@ -9058,10 +9037,10 @@
       <c r="B18" s="12">
         <v>3</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G18" s="11">
@@ -9073,10 +9052,10 @@
       <c r="B19" s="12">
         <v>4</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G19" s="11">
@@ -9108,10 +9087,10 @@
       <c r="B22" s="12">
         <v>7</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G22" s="11">
@@ -9123,10 +9102,10 @@
       <c r="B23" s="12">
         <v>8</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G23" s="11">
@@ -9138,10 +9117,10 @@
       <c r="B24" s="12">
         <v>9</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E24" s="51">
+      <c r="E24" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G24" s="11">
@@ -9153,10 +9132,10 @@
       <c r="B25" s="12">
         <v>10</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E25" s="51">
+      <c r="E25" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G25" s="11">
@@ -9168,10 +9147,10 @@
       <c r="B26" s="12">
         <v>11</v>
       </c>
-      <c r="C26" s="51">
+      <c r="C26" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E26" s="51">
+      <c r="E26" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G26" s="11">
@@ -9203,10 +9182,10 @@
       <c r="B29" s="12">
         <v>14</v>
       </c>
-      <c r="C29" s="51">
+      <c r="C29" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E29" s="51">
+      <c r="E29" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G29" s="11">
@@ -9218,10 +9197,10 @@
       <c r="B30" s="12">
         <v>15</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E30" s="51">
+      <c r="E30" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G30" s="11">
@@ -9233,10 +9212,10 @@
       <c r="B31" s="12">
         <v>16</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E31" s="51">
+      <c r="E31" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G31" s="11">
@@ -9248,10 +9227,10 @@
       <c r="B32" s="12">
         <v>17</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E32" s="51">
+      <c r="E32" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G32" s="11">
@@ -9263,10 +9242,10 @@
       <c r="B33" s="12">
         <v>18</v>
       </c>
-      <c r="C33" s="51">
+      <c r="C33" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E33" s="51">
+      <c r="E33" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G33" s="11">
@@ -9298,10 +9277,10 @@
       <c r="B36" s="12">
         <v>21</v>
       </c>
-      <c r="C36" s="51">
+      <c r="C36" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E36" s="51">
+      <c r="E36" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G36" s="11">
@@ -9313,10 +9292,10 @@
       <c r="B37" s="12">
         <v>22</v>
       </c>
-      <c r="C37" s="51">
+      <c r="C37" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E37" s="51">
+      <c r="E37" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G37" s="11">
@@ -9328,10 +9307,10 @@
       <c r="B38" s="12">
         <v>23</v>
       </c>
-      <c r="C38" s="51">
+      <c r="C38" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E38" s="51">
+      <c r="E38" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G38" s="11">
@@ -9343,10 +9322,10 @@
       <c r="B39" s="12">
         <v>24</v>
       </c>
-      <c r="C39" s="51">
+      <c r="C39" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E39" s="51">
+      <c r="E39" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G39" s="11">
@@ -9358,10 +9337,10 @@
       <c r="B40" s="12">
         <v>25</v>
       </c>
-      <c r="C40" s="51">
+      <c r="C40" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E40" s="51">
+      <c r="E40" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G40" s="11">
@@ -9393,10 +9372,10 @@
       <c r="B43" s="12">
         <v>28</v>
       </c>
-      <c r="C43" s="51">
+      <c r="C43" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E43" s="51">
+      <c r="E43" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G43" s="11">
@@ -9408,10 +9387,10 @@
       <c r="B44" s="12">
         <v>29</v>
       </c>
-      <c r="C44" s="51">
+      <c r="C44" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E44" s="51">
+      <c r="E44" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G44" s="11">
@@ -9423,10 +9402,10 @@
       <c r="B45" s="12">
         <v>30</v>
       </c>
-      <c r="C45" s="51">
+      <c r="C45" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E45" s="51">
+      <c r="E45" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G45" s="11">
@@ -9438,10 +9417,10 @@
       <c r="B46" s="12">
         <v>31</v>
       </c>
-      <c r="C46" s="51">
+      <c r="C46" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E46" s="51">
+      <c r="E46" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G46" s="11">
@@ -9584,34 +9563,34 @@
       <c r="K2" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
     </row>
     <row r="3" ht="14.4" customHeight="1" spans="10:14">
       <c r="J3" s="35"/>
       <c r="K3" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
     </row>
     <row r="4" ht="14.4" customHeight="1" spans="10:14">
       <c r="J4" s="36"/>
       <c r="K4" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="10:14">
-      <c r="J5" s="54"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
     </row>
     <row r="6" ht="16.2" customHeight="1" spans="2:16">
       <c r="B6" s="1" t="s">
@@ -9731,10 +9710,10 @@
       <c r="B16" s="12">
         <v>1</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G16" s="11">
@@ -9766,10 +9745,10 @@
       <c r="B19" s="12">
         <v>4</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G19" s="11">
@@ -9781,10 +9760,10 @@
       <c r="B20" s="12">
         <v>5</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G20" s="11">
@@ -9796,10 +9775,10 @@
       <c r="B21" s="12">
         <v>6</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G21" s="11">
@@ -9811,10 +9790,10 @@
       <c r="B22" s="12">
         <v>7</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G22" s="11">
@@ -9826,10 +9805,10 @@
       <c r="B23" s="12">
         <v>8</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G23" s="11">
@@ -9861,10 +9840,10 @@
       <c r="B26" s="12">
         <v>11</v>
       </c>
-      <c r="C26" s="51">
+      <c r="C26" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E26" s="51">
+      <c r="E26" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G26" s="11">
@@ -9876,10 +9855,10 @@
       <c r="B27" s="12">
         <v>12</v>
       </c>
-      <c r="C27" s="51">
+      <c r="C27" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E27" s="51">
+      <c r="E27" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G27" s="11">
@@ -9891,10 +9870,10 @@
       <c r="B28" s="12">
         <v>13</v>
       </c>
-      <c r="C28" s="51">
+      <c r="C28" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E28" s="51">
+      <c r="E28" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G28" s="11">
@@ -9956,10 +9935,10 @@
       <c r="B34" s="12">
         <v>19</v>
       </c>
-      <c r="C34" s="51">
+      <c r="C34" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E34" s="51">
+      <c r="E34" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G34" s="11">
@@ -9971,10 +9950,10 @@
       <c r="B35" s="12">
         <v>20</v>
       </c>
-      <c r="C35" s="51">
+      <c r="C35" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E35" s="51">
+      <c r="E35" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G35" s="11">
@@ -9986,10 +9965,10 @@
       <c r="B36" s="12">
         <v>21</v>
       </c>
-      <c r="C36" s="51">
+      <c r="C36" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E36" s="51">
+      <c r="E36" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G36" s="11">
@@ -10001,10 +9980,10 @@
       <c r="B37" s="12">
         <v>22</v>
       </c>
-      <c r="C37" s="51">
+      <c r="C37" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E37" s="51">
+      <c r="E37" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G37" s="11">
@@ -10036,10 +10015,10 @@
       <c r="B40" s="12">
         <v>25</v>
       </c>
-      <c r="C40" s="51">
+      <c r="C40" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E40" s="51">
+      <c r="E40" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G40" s="11">
@@ -10051,10 +10030,10 @@
       <c r="B41" s="12">
         <v>26</v>
       </c>
-      <c r="C41" s="51">
+      <c r="C41" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E41" s="51">
+      <c r="E41" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G41" s="11">
@@ -10066,10 +10045,10 @@
       <c r="B42" s="12">
         <v>27</v>
       </c>
-      <c r="C42" s="51">
+      <c r="C42" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E42" s="51">
+      <c r="E42" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G42" s="11">
@@ -10081,10 +10060,10 @@
       <c r="B43" s="12">
         <v>28</v>
       </c>
-      <c r="C43" s="51">
+      <c r="C43" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E43" s="51">
+      <c r="E43" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G43" s="11">
@@ -10096,10 +10075,10 @@
       <c r="B44" s="12">
         <v>29</v>
       </c>
-      <c r="C44" s="51">
+      <c r="C44" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E44" s="51">
+      <c r="E44" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G44" s="11">
@@ -10108,12 +10087,12 @@
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="1" spans="2:7">
-      <c r="B45" s="55">
+      <c r="B45" s="54">
         <v>30</v>
       </c>
-      <c r="C45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="G45" s="55" t="s">
+      <c r="C45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="G45" s="54" t="s">
         <v>87</v>
       </c>
     </row>
@@ -10257,34 +10236,34 @@
       <c r="K2" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
     </row>
     <row r="3" ht="14.4" customHeight="1" spans="10:14">
       <c r="J3" s="35"/>
       <c r="K3" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
     </row>
     <row r="4" ht="14.4" customHeight="1" spans="10:14">
       <c r="J4" s="36"/>
       <c r="K4" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="10:14">
-      <c r="J5" s="54"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
     </row>
     <row r="6" ht="16.2" customHeight="1" spans="2:16">
       <c r="B6" s="1" t="s">
@@ -10401,12 +10380,12 @@
       </c>
     </row>
     <row r="16" ht="14.4" customHeight="1" spans="2:7">
-      <c r="B16" s="52">
+      <c r="B16" s="51">
         <v>1</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="G16" s="52" t="s">
+      <c r="C16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="G16" s="51" t="s">
         <v>87</v>
       </c>
     </row>
@@ -10414,10 +10393,10 @@
       <c r="B17" s="12">
         <v>2</v>
       </c>
-      <c r="C17" s="51">
+      <c r="C17" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G17" s="11">
@@ -10429,10 +10408,10 @@
       <c r="B18" s="12">
         <v>3</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G18" s="11">
@@ -10444,10 +10423,10 @@
       <c r="B19" s="12">
         <v>4</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G19" s="11">
@@ -10459,10 +10438,10 @@
       <c r="B20" s="12">
         <v>5</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G20" s="11">
@@ -10474,10 +10453,10 @@
       <c r="B21" s="12">
         <v>6</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G21" s="11">
@@ -10509,10 +10488,10 @@
       <c r="B24" s="12">
         <v>9</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E24" s="51">
+      <c r="E24" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G24" s="11">
@@ -10524,10 +10503,10 @@
       <c r="B25" s="12">
         <v>10</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E25" s="51">
+      <c r="E25" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G25" s="11">
@@ -10539,10 +10518,10 @@
       <c r="B26" s="12">
         <v>11</v>
       </c>
-      <c r="C26" s="51">
+      <c r="C26" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E26" s="51">
+      <c r="E26" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G26" s="11">
@@ -10554,10 +10533,10 @@
       <c r="B27" s="12">
         <v>12</v>
       </c>
-      <c r="C27" s="51">
+      <c r="C27" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E27" s="51">
+      <c r="E27" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G27" s="11">
@@ -10569,10 +10548,10 @@
       <c r="B28" s="12">
         <v>13</v>
       </c>
-      <c r="C28" s="51">
+      <c r="C28" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E28" s="51">
+      <c r="E28" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G28" s="11">
@@ -10604,10 +10583,10 @@
       <c r="B31" s="12">
         <v>16</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E31" s="51">
+      <c r="E31" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G31" s="11">
@@ -10619,10 +10598,10 @@
       <c r="B32" s="12">
         <v>17</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E32" s="51">
+      <c r="E32" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G32" s="11">
@@ -10634,10 +10613,10 @@
       <c r="B33" s="12">
         <v>18</v>
       </c>
-      <c r="C33" s="51">
+      <c r="C33" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E33" s="51">
+      <c r="E33" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G33" s="11">
@@ -10649,10 +10628,10 @@
       <c r="B34" s="12">
         <v>19</v>
       </c>
-      <c r="C34" s="51">
+      <c r="C34" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E34" s="51">
+      <c r="E34" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G34" s="11">
@@ -10664,10 +10643,10 @@
       <c r="B35" s="12">
         <v>20</v>
       </c>
-      <c r="C35" s="51">
+      <c r="C35" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E35" s="51">
+      <c r="E35" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G35" s="11">
@@ -10699,10 +10678,10 @@
       <c r="B38" s="12">
         <v>23</v>
       </c>
-      <c r="C38" s="51">
+      <c r="C38" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E38" s="51">
+      <c r="E38" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G38" s="11">
@@ -10714,10 +10693,10 @@
       <c r="B39" s="12">
         <v>24</v>
       </c>
-      <c r="C39" s="51">
+      <c r="C39" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E39" s="51">
+      <c r="E39" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G39" s="11">
@@ -10729,10 +10708,10 @@
       <c r="B40" s="12">
         <v>25</v>
       </c>
-      <c r="C40" s="51">
+      <c r="C40" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E40" s="51">
+      <c r="E40" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G40" s="11">
@@ -10744,10 +10723,10 @@
       <c r="B41" s="12">
         <v>26</v>
       </c>
-      <c r="C41" s="51">
+      <c r="C41" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E41" s="51">
+      <c r="E41" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G41" s="11">
@@ -10759,10 +10738,10 @@
       <c r="B42" s="12">
         <v>27</v>
       </c>
-      <c r="C42" s="51">
+      <c r="C42" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E42" s="51">
+      <c r="E42" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G42" s="11">
@@ -10794,10 +10773,10 @@
       <c r="B45" s="12">
         <v>30</v>
       </c>
-      <c r="C45" s="51">
+      <c r="C45" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E45" s="51">
+      <c r="E45" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G45" s="11">
@@ -10809,10 +10788,10 @@
       <c r="B46" s="12">
         <v>31</v>
       </c>
-      <c r="C46" s="51">
+      <c r="C46" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E46" s="51">
+      <c r="E46" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G46" s="11">
@@ -11092,10 +11071,10 @@
       <c r="B16" s="12">
         <v>1</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G16" s="11">
@@ -11107,10 +11086,10 @@
       <c r="B17" s="12">
         <v>2</v>
       </c>
-      <c r="C17" s="51">
+      <c r="C17" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G17" s="11">
@@ -11122,10 +11101,10 @@
       <c r="B18" s="12">
         <v>3</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G18" s="11">
@@ -11157,10 +11136,10 @@
       <c r="B21" s="12">
         <v>6</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G21" s="11">
@@ -11172,10 +11151,10 @@
       <c r="B22" s="12">
         <v>7</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G22" s="11">
@@ -11187,10 +11166,10 @@
       <c r="B23" s="12">
         <v>8</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G23" s="11">
@@ -11202,10 +11181,10 @@
       <c r="B24" s="12">
         <v>9</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E24" s="51">
+      <c r="E24" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G24" s="11">
@@ -11217,10 +11196,10 @@
       <c r="B25" s="12">
         <v>10</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E25" s="51">
+      <c r="E25" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G25" s="11">
@@ -11280,10 +11259,10 @@
       <c r="B30" s="12">
         <v>15</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E30" s="51">
+      <c r="E30" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G30" s="11">
@@ -11295,10 +11274,10 @@
       <c r="B31" s="12">
         <v>16</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E31" s="51">
+      <c r="E31" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G31" s="11">
@@ -11310,10 +11289,10 @@
       <c r="B32" s="12">
         <v>17</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E32" s="51">
+      <c r="E32" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G32" s="11">
@@ -11345,10 +11324,10 @@
       <c r="B35" s="12">
         <v>20</v>
       </c>
-      <c r="C35" s="51">
+      <c r="C35" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E35" s="51">
+      <c r="E35" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G35" s="11">
@@ -11360,10 +11339,10 @@
       <c r="B36" s="12">
         <v>21</v>
       </c>
-      <c r="C36" s="51">
+      <c r="C36" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E36" s="51">
+      <c r="E36" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G36" s="11">
@@ -11375,10 +11354,10 @@
       <c r="B37" s="12">
         <v>22</v>
       </c>
-      <c r="C37" s="51">
+      <c r="C37" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E37" s="51">
+      <c r="E37" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G37" s="11">
@@ -11390,10 +11369,10 @@
       <c r="B38" s="12">
         <v>23</v>
       </c>
-      <c r="C38" s="51">
+      <c r="C38" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E38" s="51">
+      <c r="E38" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G38" s="11">
@@ -11405,10 +11384,10 @@
       <c r="B39" s="12">
         <v>24</v>
       </c>
-      <c r="C39" s="51">
+      <c r="C39" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E39" s="51">
+      <c r="E39" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G39" s="11">
@@ -11440,10 +11419,10 @@
       <c r="B42" s="12">
         <v>27</v>
       </c>
-      <c r="C42" s="51">
+      <c r="C42" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E42" s="51">
+      <c r="E42" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G42" s="11">
@@ -11455,10 +11434,10 @@
       <c r="B43" s="12">
         <v>28</v>
       </c>
-      <c r="C43" s="51">
+      <c r="C43" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E43" s="51">
+      <c r="E43" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G43" s="11">
@@ -11470,10 +11449,10 @@
       <c r="B44" s="12">
         <v>29</v>
       </c>
-      <c r="C44" s="51">
+      <c r="C44" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E44" s="51">
+      <c r="E44" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G44" s="11">
@@ -11485,10 +11464,10 @@
       <c r="B45" s="12">
         <v>30</v>
       </c>
-      <c r="C45" s="51">
+      <c r="C45" s="47">
         <v>0.333333333333333</v>
       </c>
-      <c r="E45" s="51">
+      <c r="E45" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G45" s="11">
@@ -11606,8 +11585,8 @@
   <sheetPr/>
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>

--- a/config_files/Horarios/Medibiofarma/Amaia Iturmendi.xlsx
+++ b/config_files/Horarios/Medibiofarma/Amaia Iturmendi.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="118">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -379,17 +379,20 @@
   <si>
     <t>Diciembre</t>
   </si>
+  <si>
+    <t>0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="mmmm\ yyyy"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="ddd"/>
     <numFmt numFmtId="180" formatCode="d"/>
     <numFmt numFmtId="181" formatCode="[$-40A]d\ mmm;@"/>
@@ -1946,7 +1949,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2260,6 +2263,12 @@
     </xf>
     <xf numFmtId="179" fontId="16" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3104,16 +3113,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="2.78181818181818" customWidth="1" collapsed="1"/>
-    <col min="2" max="8" width="6.78181818181818" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="2.78181818181818" customWidth="1" collapsed="1"/>
-    <col min="10" max="16" width="6.78181818181818" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="2.78181818181818" customWidth="1" collapsed="1"/>
-    <col min="18" max="24" width="6.78181818181818" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="5.78181818181818" customWidth="1" collapsed="1"/>
-    <col min="27" max="29" width="25" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="2.78181818181818" collapsed="true"/>
+    <col min="2" max="8" customWidth="true" width="6.78181818181818" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.78181818181818" collapsed="true"/>
+    <col min="10" max="16" customWidth="true" width="6.78181818181818" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.78181818181818" collapsed="true"/>
+    <col min="18" max="24" customWidth="true" width="6.78181818181818" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="5.78181818181818" collapsed="true"/>
+    <col min="27" max="29" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.8" customHeight="1" spans="2:24">
@@ -5120,18 +5129,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:11">
@@ -5704,18 +5713,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:11">
@@ -6296,18 +6305,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:11">
@@ -6878,18 +6887,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:11">
@@ -7469,18 +7478,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:14">
@@ -8161,18 +8170,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:14">
@@ -8841,18 +8850,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:14">
@@ -9544,18 +9553,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:14">
@@ -10217,18 +10226,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:14">
@@ -10915,18 +10924,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:11">
@@ -11591,18 +11600,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:11">
@@ -11742,11 +11751,11 @@
       <c r="B16" s="12">
         <v>1</v>
       </c>
-      <c r="C16" s="47">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E16" s="47">
-        <v>0.708333333333333</v>
+      <c r="C16" s="130" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E16" s="130" t="n">
+        <v>0.7083333333333334</v>
       </c>
       <c r="G16" s="11">
         <f t="shared" ref="G16:G20" si="0">IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
@@ -11777,11 +11786,11 @@
       <c r="B19" s="12">
         <v>4</v>
       </c>
-      <c r="C19" s="47">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E19" s="47">
-        <v>0.708333333333333</v>
+      <c r="C19" s="130" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E19" s="130" t="n">
+        <v>0.7083333333333334</v>
       </c>
       <c r="G19" s="11">
         <f t="shared" si="0"/>
@@ -11792,11 +11801,11 @@
       <c r="B20" s="12">
         <v>5</v>
       </c>
-      <c r="C20" s="47">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E20" s="47">
-        <v>0.708333333333333</v>
+      <c r="C20" s="130" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E20" s="130" t="n">
+        <v>0.7083333333333334</v>
       </c>
       <c r="G20" s="11">
         <f t="shared" si="0"/>
@@ -11869,11 +11878,11 @@
       <c r="B26" s="12">
         <v>11</v>
       </c>
-      <c r="C26" s="47">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E26" s="47">
-        <v>0.708333333333333</v>
+      <c r="C26" s="130" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E26" s="130" t="n">
+        <v>0.7083333333333334</v>
       </c>
       <c r="G26" s="11">
         <f t="shared" ref="G26:G30" si="1">IF((E26-C26)*24&lt;=4,(E26-C26)*24,(E26-C26)*24-1)</f>
@@ -11884,11 +11893,11 @@
       <c r="B27" s="12">
         <v>12</v>
       </c>
-      <c r="C27" s="47">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E27" s="47">
-        <v>0.708333333333333</v>
+      <c r="C27" s="130" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E27" s="130" t="n">
+        <v>0.7083333333333334</v>
       </c>
       <c r="G27" s="11">
         <f t="shared" si="1"/>
@@ -11899,11 +11908,11 @@
       <c r="B28" s="12">
         <v>13</v>
       </c>
-      <c r="C28" s="47">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E28" s="47">
-        <v>0.708333333333333</v>
+      <c r="C28" s="130" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E28" s="130" t="n">
+        <v>0.7083333333333334</v>
       </c>
       <c r="G28" s="11">
         <f t="shared" si="1"/>
@@ -11914,11 +11923,11 @@
       <c r="B29" s="12">
         <v>14</v>
       </c>
-      <c r="C29" s="47">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E29" s="47">
-        <v>0.708333333333333</v>
+      <c r="C29" s="130" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E29" s="130" t="n">
+        <v>0.7083333333333334</v>
       </c>
       <c r="G29" s="11">
         <f t="shared" si="1"/>
@@ -11929,11 +11938,11 @@
       <c r="B30" s="12">
         <v>15</v>
       </c>
-      <c r="C30" s="47">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E30" s="47">
-        <v>0.708333333333333</v>
+      <c r="C30" s="130" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E30" s="130" t="n">
+        <v>0.7083333333333334</v>
       </c>
       <c r="G30" s="11">
         <f t="shared" si="1"/>
@@ -11964,8 +11973,12 @@
       <c r="B33" s="12">
         <v>18</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="E33" s="13"/>
+      <c r="C33" s="130" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E33" s="130" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G33" s="11">
         <f t="shared" ref="G33:G37" si="2">IF((E33-C33)*24&lt;=4,(E33-C33)*24,(E33-C33)*24-1)</f>
         <v>0</v>
@@ -11975,8 +11988,12 @@
       <c r="B34" s="12">
         <v>19</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="E34" s="13"/>
+      <c r="C34" s="130" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E34" s="130" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G34" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11986,8 +12003,12 @@
       <c r="B35" s="12">
         <v>20</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="C35" s="130" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E35" s="130" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G35" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11997,8 +12018,12 @@
       <c r="B36" s="12">
         <v>21</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="E36" s="13"/>
+      <c r="C36" s="130" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E36" s="130" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G36" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -12008,8 +12033,12 @@
       <c r="B37" s="12">
         <v>22</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="E37" s="13"/>
+      <c r="C37" s="130" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E37" s="130" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G37" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -12049,8 +12078,12 @@
       <c r="B41" s="12">
         <v>26</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="E41" s="13"/>
+      <c r="C41" s="130" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E41" s="130" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G41" s="11">
         <f t="shared" ref="G41:G44" si="3">IF((E41-C41)*24&lt;=4,(E41-C41)*24,(E41-C41)*24-1)</f>
         <v>0</v>
@@ -12060,8 +12093,12 @@
       <c r="B42" s="12">
         <v>27</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="E42" s="13"/>
+      <c r="C42" s="130" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E42" s="130" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G42" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12071,8 +12108,12 @@
       <c r="B43" s="12">
         <v>28</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="E43" s="13"/>
+      <c r="C43" s="130" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E43" s="130" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G43" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12082,8 +12123,12 @@
       <c r="B44" s="12">
         <v>29</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="E44" s="13"/>
+      <c r="C44" s="130" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E44" s="130" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G44" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12224,18 +12269,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:11">
@@ -12450,55 +12495,70 @@
       <c r="B23" s="12">
         <v>8</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="G23" s="11">
-        <f t="shared" ref="G23:G27" si="1">IF((E23-C23)*24&lt;=4,(E23-C23)*24,(E23-C23)*24-1)</f>
-        <v>0</v>
+      <c r="C23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="1" spans="2:7">
       <c r="B24" s="12">
         <v>9</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="G24" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="1" spans="2:7">
       <c r="B25" s="12">
         <v>10</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="G25" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="1" spans="2:7">
       <c r="B26" s="12">
         <v>11</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="G26" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="1" spans="2:7">
       <c r="B27" s="12">
         <v>12</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="G27" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="1" spans="2:7">
@@ -12535,44 +12595,56 @@
       <c r="B31" s="12">
         <v>16</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="G31" s="11">
-        <f t="shared" ref="G31:G34" si="2">IF((E31-C31)*24&lt;=4,(E31-C31)*24,(E31-C31)*24-1)</f>
-        <v>0</v>
+      <c r="C31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="1" spans="2:7">
       <c r="B32" s="12">
         <v>17</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="G32" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="1" spans="2:7">
       <c r="B33" s="12">
         <v>18</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="G33" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C33" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="1" spans="2:7">
       <c r="B34" s="12">
         <v>19</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="G34" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="1" spans="2:7">
@@ -12599,55 +12671,70 @@
       <c r="B37" s="12">
         <v>22</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="G37" s="11">
-        <f t="shared" ref="G37:G41" si="3">IF((E37-C37)*24&lt;=4,(E37-C37)*24,(E37-C37)*24-1)</f>
-        <v>0</v>
+      <c r="C37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="1" spans="2:7">
       <c r="B38" s="12">
         <v>23</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="G38" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="1" spans="2:7">
       <c r="B39" s="12">
         <v>24</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="G39" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C39" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="1" spans="2:7">
       <c r="B40" s="12">
         <v>25</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="G40" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="1" spans="2:7">
       <c r="B41" s="12">
         <v>26</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="G41" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C41" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="1" spans="2:7">
@@ -12674,11 +12761,14 @@
       <c r="B44" s="12">
         <v>29</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="G44" s="11">
-        <f t="shared" ref="G44:G46" si="4">IF((E44-C44)*24&lt;=4,(E44-C44)*24,(E44-C44)*24-1)</f>
-        <v>0</v>
+      <c r="C44" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="1" spans="2:7">
@@ -12688,7 +12778,7 @@
       <c r="C45" s="13"/>
       <c r="E45" s="13"/>
       <c r="G45" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="4" ref="G45:G46">IF((E45-C45)*24&lt;=4,(E45-C45)*24,(E45-C45)*24-1)</f>
         <v>0</v>
       </c>
     </row>

--- a/config_files/Horarios/Medibiofarma/Amaia Iturmendi.xlsx
+++ b/config_files/Horarios/Medibiofarma/Amaia Iturmendi.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="118">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -1949,7 +1949,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2263,6 +2263,33 @@
     </xf>
     <xf numFmtId="179" fontId="16" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="center"/>
@@ -5280,8 +5307,12 @@
       <c r="B16" s="12">
         <v>1</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="C16" s="140" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E16" s="140" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G16" s="11">
         <f t="shared" ref="G16:G24" si="0">IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
         <v>0</v>
@@ -5291,8 +5322,12 @@
       <c r="B17" s="12">
         <v>2</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="C17" s="140" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E17" s="140" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G17" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5322,8 +5357,12 @@
       <c r="B20" s="12">
         <v>5</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="C20" s="140" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E20" s="140" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G20" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5333,8 +5372,12 @@
       <c r="B21" s="12">
         <v>6</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="C21" s="140" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E21" s="140" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G21" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5344,8 +5387,12 @@
       <c r="B22" s="12">
         <v>7</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="C22" s="140" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E22" s="140" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G22" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5355,8 +5402,12 @@
       <c r="B23" s="12">
         <v>8</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="C23" s="140" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E23" s="140" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G23" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5366,8 +5417,12 @@
       <c r="B24" s="12">
         <v>9</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="C24" s="140" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E24" s="140" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G24" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5397,8 +5452,12 @@
       <c r="B27" s="12">
         <v>12</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="C27" s="140" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E27" s="140" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G27" s="11">
         <f t="shared" ref="G27:G31" si="1">IF((E27-C27)*24&lt;=4,(E27-C27)*24,(E27-C27)*24-1)</f>
         <v>0</v>
@@ -5408,8 +5467,12 @@
       <c r="B28" s="12">
         <v>13</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="C28" s="140" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E28" s="140" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G28" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5419,8 +5482,12 @@
       <c r="B29" s="12">
         <v>14</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="E29" s="13"/>
+      <c r="C29" s="140" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E29" s="140" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G29" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5430,8 +5497,12 @@
       <c r="B30" s="12">
         <v>15</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="E30" s="13"/>
+      <c r="C30" s="140" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E30" s="140" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G30" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5441,8 +5512,12 @@
       <c r="B31" s="12">
         <v>16</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="E31" s="13"/>
+      <c r="C31" s="140" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E31" s="140" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G31" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8143,7 +8218,7 @@
       <c r="H62" s="32"/>
     </row>
   </sheetData>
-  <sheetProtection password="BCDB" sheet="1" objects="1"/>
+  <sheetProtection password="BCDB" sheet="true" objects="true" scenarios="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -12243,6 +12318,7 @@
       <c r="H62" s="32"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -12420,8 +12496,12 @@
       <c r="B16" s="12">
         <v>1</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="C16" s="135" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E16" s="135" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G16" s="11">
         <f t="shared" ref="G16:G20" si="0">IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
         <v>0</v>
@@ -12431,8 +12511,12 @@
       <c r="B17" s="12">
         <v>2</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="C17" s="135" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E17" s="135" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G17" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12442,8 +12526,12 @@
       <c r="B18" s="12">
         <v>3</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="C18" s="135" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E18" s="135" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G18" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12453,8 +12541,12 @@
       <c r="B19" s="12">
         <v>4</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="C19" s="135" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E19" s="135" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G19" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12464,8 +12556,12 @@
       <c r="B20" s="12">
         <v>5</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="C20" s="135" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E20" s="135" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G20" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12775,8 +12871,12 @@
       <c r="B45" s="12">
         <v>30</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="E45" s="13"/>
+      <c r="C45" s="135" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E45" s="135" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G45" s="11">
         <f t="shared" si="4" ref="G45:G46">IF((E45-C45)*24&lt;=4,(E45-C45)*24,(E45-C45)*24-1)</f>
         <v>0</v>
@@ -12786,8 +12886,12 @@
       <c r="B46" s="12">
         <v>31</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="E46" s="13"/>
+      <c r="C46" s="135" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E46" s="135" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G46" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12882,6 +12986,7 @@
       <c r="H62" s="32"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>

--- a/config_files/Horarios/Medibiofarma/Amaia Iturmendi.xlsx
+++ b/config_files/Horarios/Medibiofarma/Amaia Iturmendi.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="118">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -1949,7 +1949,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2263,33 +2263,6 @@
     </xf>
     <xf numFmtId="179" fontId="16" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="center"/>
@@ -5307,12 +5280,8 @@
       <c r="B16" s="12">
         <v>1</v>
       </c>
-      <c r="C16" s="140" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E16" s="140" t="n">
-        <v>0.7083333333333334</v>
-      </c>
+      <c r="C16" s="13"/>
+      <c r="E16" s="13"/>
       <c r="G16" s="11">
         <f t="shared" ref="G16:G24" si="0">IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
         <v>0</v>
@@ -5322,12 +5291,8 @@
       <c r="B17" s="12">
         <v>2</v>
       </c>
-      <c r="C17" s="140" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E17" s="140" t="n">
-        <v>0.7083333333333334</v>
-      </c>
+      <c r="C17" s="13"/>
+      <c r="E17" s="13"/>
       <c r="G17" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5357,12 +5322,8 @@
       <c r="B20" s="12">
         <v>5</v>
       </c>
-      <c r="C20" s="140" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E20" s="140" t="n">
-        <v>0.7083333333333334</v>
-      </c>
+      <c r="C20" s="13"/>
+      <c r="E20" s="13"/>
       <c r="G20" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5372,12 +5333,8 @@
       <c r="B21" s="12">
         <v>6</v>
       </c>
-      <c r="C21" s="140" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E21" s="140" t="n">
-        <v>0.7083333333333334</v>
-      </c>
+      <c r="C21" s="13"/>
+      <c r="E21" s="13"/>
       <c r="G21" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5387,12 +5344,8 @@
       <c r="B22" s="12">
         <v>7</v>
       </c>
-      <c r="C22" s="140" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E22" s="140" t="n">
-        <v>0.7083333333333334</v>
-      </c>
+      <c r="C22" s="13"/>
+      <c r="E22" s="13"/>
       <c r="G22" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5402,12 +5355,8 @@
       <c r="B23" s="12">
         <v>8</v>
       </c>
-      <c r="C23" s="140" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E23" s="140" t="n">
-        <v>0.7083333333333334</v>
-      </c>
+      <c r="C23" s="13"/>
+      <c r="E23" s="13"/>
       <c r="G23" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5417,12 +5366,8 @@
       <c r="B24" s="12">
         <v>9</v>
       </c>
-      <c r="C24" s="140" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E24" s="140" t="n">
-        <v>0.7083333333333334</v>
-      </c>
+      <c r="C24" s="13"/>
+      <c r="E24" s="13"/>
       <c r="G24" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5452,12 +5397,8 @@
       <c r="B27" s="12">
         <v>12</v>
       </c>
-      <c r="C27" s="140" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E27" s="140" t="n">
-        <v>0.7083333333333334</v>
-      </c>
+      <c r="C27" s="13"/>
+      <c r="E27" s="13"/>
       <c r="G27" s="11">
         <f t="shared" ref="G27:G31" si="1">IF((E27-C27)*24&lt;=4,(E27-C27)*24,(E27-C27)*24-1)</f>
         <v>0</v>
@@ -5467,12 +5408,8 @@
       <c r="B28" s="12">
         <v>13</v>
       </c>
-      <c r="C28" s="140" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E28" s="140" t="n">
-        <v>0.7083333333333334</v>
-      </c>
+      <c r="C28" s="13"/>
+      <c r="E28" s="13"/>
       <c r="G28" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5482,12 +5419,8 @@
       <c r="B29" s="12">
         <v>14</v>
       </c>
-      <c r="C29" s="140" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E29" s="140" t="n">
-        <v>0.7083333333333334</v>
-      </c>
+      <c r="C29" s="13"/>
+      <c r="E29" s="13"/>
       <c r="G29" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5497,12 +5430,8 @@
       <c r="B30" s="12">
         <v>15</v>
       </c>
-      <c r="C30" s="140" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E30" s="140" t="n">
-        <v>0.7083333333333334</v>
-      </c>
+      <c r="C30" s="13"/>
+      <c r="E30" s="13"/>
       <c r="G30" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5512,12 +5441,8 @@
       <c r="B31" s="12">
         <v>16</v>
       </c>
-      <c r="C31" s="140" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E31" s="140" t="n">
-        <v>0.7083333333333334</v>
-      </c>
+      <c r="C31" s="13"/>
+      <c r="E31" s="13"/>
       <c r="G31" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8218,7 +8143,7 @@
       <c r="H62" s="32"/>
     </row>
   </sheetData>
-  <sheetProtection password="BCDB" sheet="true" objects="true" scenarios="true"/>
+  <sheetProtection password="BCDB" sheet="1" objects="1"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -12318,7 +12243,6 @@
       <c r="H62" s="32"/>
     </row>
   </sheetData>
-  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -12496,12 +12420,8 @@
       <c r="B16" s="12">
         <v>1</v>
       </c>
-      <c r="C16" s="135" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E16" s="135" t="n">
-        <v>0.7083333333333334</v>
-      </c>
+      <c r="C16" s="13"/>
+      <c r="E16" s="13"/>
       <c r="G16" s="11">
         <f t="shared" ref="G16:G20" si="0">IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
         <v>0</v>
@@ -12511,12 +12431,8 @@
       <c r="B17" s="12">
         <v>2</v>
       </c>
-      <c r="C17" s="135" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E17" s="135" t="n">
-        <v>0.7083333333333334</v>
-      </c>
+      <c r="C17" s="13"/>
+      <c r="E17" s="13"/>
       <c r="G17" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12526,12 +12442,8 @@
       <c r="B18" s="12">
         <v>3</v>
       </c>
-      <c r="C18" s="135" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E18" s="135" t="n">
-        <v>0.7083333333333334</v>
-      </c>
+      <c r="C18" s="13"/>
+      <c r="E18" s="13"/>
       <c r="G18" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12541,12 +12453,8 @@
       <c r="B19" s="12">
         <v>4</v>
       </c>
-      <c r="C19" s="135" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E19" s="135" t="n">
-        <v>0.7083333333333334</v>
-      </c>
+      <c r="C19" s="13"/>
+      <c r="E19" s="13"/>
       <c r="G19" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12556,12 +12464,8 @@
       <c r="B20" s="12">
         <v>5</v>
       </c>
-      <c r="C20" s="135" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E20" s="135" t="n">
-        <v>0.7083333333333334</v>
-      </c>
+      <c r="C20" s="13"/>
+      <c r="E20" s="13"/>
       <c r="G20" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12871,12 +12775,8 @@
       <c r="B45" s="12">
         <v>30</v>
       </c>
-      <c r="C45" s="135" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E45" s="135" t="n">
-        <v>0.7083333333333334</v>
-      </c>
+      <c r="C45" s="13"/>
+      <c r="E45" s="13"/>
       <c r="G45" s="11">
         <f t="shared" si="4" ref="G45:G46">IF((E45-C45)*24&lt;=4,(E45-C45)*24,(E45-C45)*24-1)</f>
         <v>0</v>
@@ -12886,12 +12786,8 @@
       <c r="B46" s="12">
         <v>31</v>
       </c>
-      <c r="C46" s="135" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E46" s="135" t="n">
-        <v>0.7083333333333334</v>
-      </c>
+      <c r="C46" s="13"/>
+      <c r="E46" s="13"/>
       <c r="G46" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12986,7 +12882,6 @@
       <c r="H62" s="32"/>
     </row>
   </sheetData>
-  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
